--- a/xlsx/a69_f17UPPachuca.xlsx
+++ b/xlsx/a69_f17UPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Tabla_350631" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$S$60</definedName>
     <definedName name="Hidden_19">Hidden_1!$A$1:$A$10</definedName>
     <definedName name="Hidden_213">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="632">
   <si>
     <t>44247</t>
   </si>
@@ -621,9 +620,24 @@
     <t>Subdirector de Comunicación Social</t>
   </si>
   <si>
+    <t>Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
     <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
   <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?968</t>
+  </si>
+  <si>
     <t>Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
@@ -696,6 +710,9 @@
     <t>Cornejo</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1_DtKu0Zm7R09FJdUDpKFd0DIkiHBUvjG/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Coordinación del Posgrado en Mecatrónica</t>
   </si>
   <si>
@@ -714,6 +731,9 @@
     <t>Mecánica</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1k0STeQPJB0fhS0gK06p1FSH0N8Z5QU7D/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Subdirección de Recursos Financieros</t>
   </si>
   <si>
@@ -798,6 +818,9 @@
     <t>Mecánica Automotriz</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1x4nJrefHhUFdAlw8q9CmkwK7OFa3PLt0/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Departamento de Programas Especiales</t>
   </si>
   <si>
@@ -843,18 +866,9 @@
     <t>Jefa de Departamento Jurídico</t>
   </si>
   <si>
-    <t>Ahsure Tatiana</t>
-  </si>
-  <si>
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>Educación Secundaria</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JpxLkCxdfX4cVyK0d4Lv24tnBmbENJZK/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Departamento de Logística</t>
   </si>
   <si>
@@ -972,22 +986,13 @@
     <t>Dirección Comercial</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1Et4oEbEf5Y6eFPFl5WAnkLHqsDi5GXB9/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Departamento de Educación a Distancia</t>
   </si>
   <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
-    <t>Diseño Gráfico</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?968</t>
+    <t>Encargada de Departamento de Educación a Distancia</t>
   </si>
   <si>
     <t>Departamento de Incubación de Empresas</t>
@@ -1008,6 +1013,9 @@
     <t>Ingeniería en Electrónica y Comunicaciones</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1MjH1MlsiI3KipKEhXHCsEnsOniSoysba/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Departamento de Contabilidad</t>
   </si>
   <si>
@@ -1056,72 +1064,75 @@
     <t>Enfermería</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1skM3taDbIvXCxIsj9J9vBZyb-HgCUkiy/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Departamento de Mantenimiento y Servicios Generales</t>
   </si>
   <si>
     <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
   </si>
   <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?970</t>
+  </si>
+  <si>
+    <t>Departamento de Administración del Polideportivo</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Administración del Polideportivo</t>
+  </si>
+  <si>
+    <t>José Enoch</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>Técnico en Plásticos</t>
+  </si>
+  <si>
+    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?5581</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisición de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?974</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura</t>
+  </si>
+  <si>
     <t>César Hugo</t>
   </si>
   <si>
     <t>Dorantes</t>
   </si>
   <si>
-    <t>Castillo</t>
-  </si>
-  <si>
     <t>Arquitectura</t>
   </si>
   <si>
     <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?976</t>
   </si>
   <si>
-    <t>Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
-    <t>José Enoch</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Alfaro</t>
-  </si>
-  <si>
-    <t>Técnico en Plásticos</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?5581</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisición de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Calva</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?974</t>
-  </si>
-  <si>
-    <t>Departamento de Infraestructura</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?970</t>
-  </si>
-  <si>
     <t>Departamento de Tecnologías de Información y Comunicaciones</t>
   </si>
   <si>
@@ -1185,13 +1196,13 @@
     <t>Cuenta con un empleo anterior al actual</t>
   </si>
   <si>
-    <t>Encargada de Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Mayeli</t>
-  </si>
-  <si>
-    <t>Maestría en Tecnologías de la Información y Comunicaciones</t>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Eguiluz</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
   </si>
   <si>
     <t>Universidad Autónoma del Estado de Hidalgo</t>
@@ -1494,9 +1505,30 @@
     <t>Administrador General</t>
   </si>
   <si>
+    <t>Fundación Latinoamericana de Estudios Superiores</t>
+  </si>
+  <si>
+    <t>Encargado del Desarrollo de Programas Publicitarias</t>
+  </si>
+  <si>
+    <t>Comunicación Social</t>
+  </si>
+  <si>
+    <t>Instituto Tecnológico Latinoamericano</t>
+  </si>
+  <si>
+    <t>Encargado del Departamento de Creatividad y Diseño</t>
+  </si>
+  <si>
     <t>Comunicación social</t>
   </si>
   <si>
+    <t>Instituto Mexicano del Petróleo</t>
+  </si>
+  <si>
+    <t>Diseño e Impresión de Portadas</t>
+  </si>
+  <si>
     <t>H. Congreso del Estado de Hidalgo</t>
   </si>
   <si>
@@ -1608,21 +1640,6 @@
     <t>Cápsulas de radio</t>
   </si>
   <si>
-    <t>Comunicación Social</t>
-  </si>
-  <si>
-    <t>Centro de Investigación Educativa y Fortalecimiento Institucional</t>
-  </si>
-  <si>
-    <t>SEPH</t>
-  </si>
-  <si>
-    <t>Encargada de Trabajo Social</t>
-  </si>
-  <si>
-    <t>Área operativa y jurídica de tiendas escolares</t>
-  </si>
-  <si>
     <t>Juzgado Sexto Civil del Distrito Judicial de Pachuca de Soto</t>
   </si>
   <si>
@@ -1713,22 +1730,7 @@
     <t>Centro Hidalguense de Estudios Superiores</t>
   </si>
   <si>
-    <t>Fundación Latinoamericana de Estudios Superiores</t>
-  </si>
-  <si>
-    <t>Encargado del Desarrollo de Programas Publicitarias</t>
-  </si>
-  <si>
-    <t>Instituto Tecnológico Latinoamericano</t>
-  </si>
-  <si>
-    <t>Encargado del Departamento de Creatividad y Diseño</t>
-  </si>
-  <si>
-    <t>Instituto Mexicano del Petróleo</t>
-  </si>
-  <si>
-    <t>Diseño e Impresión de Portadas</t>
+    <t>Jefe de Oficina C</t>
   </si>
   <si>
     <t>Universidad Tecnológica de Tulancingo</t>
@@ -1773,9 +1775,6 @@
     <t>Jefe de Oficina B</t>
   </si>
   <si>
-    <t>Jefe de Oficina C</t>
-  </si>
-  <si>
     <t>Central Medica de Oriente</t>
   </si>
   <si>
@@ -1791,6 +1790,54 @@
     <t>Enfermera</t>
   </si>
   <si>
+    <t>Hospital General de Pachuca</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Mantenimiento a Intalaciones</t>
+  </si>
+  <si>
+    <t>Tecnología Electrico Digital  Pachuca</t>
+  </si>
+  <si>
+    <t>Reparación  de aparatos</t>
+  </si>
+  <si>
+    <t>CBTIS Centro de Bachillerato Tecnológico Industrial y de Servicios</t>
+  </si>
+  <si>
+    <t>Encargado de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Intalaciones</t>
+  </si>
+  <si>
+    <t>Instituto Tecnológico Latinoaméricano</t>
+  </si>
+  <si>
+    <t>Consejo de Ciencia y Tecnología del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Encargado de Departamento de Vinculación</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Constructura Stratto S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
+  </si>
+  <si>
+    <t>Presidencia Municipal de Pachuca</t>
+  </si>
+  <si>
+    <t>Coordinador Operativo de la Dirección de Reglamentos y Espectaculos del Mpio</t>
+  </si>
+  <si>
     <t>Despacho de Arquitectos NUMEN STUDIO ARQUITECTOS</t>
   </si>
   <si>
@@ -1806,54 +1853,6 @@
     <t>Arquitecto Independiente</t>
   </si>
   <si>
-    <t>Instituto Tecnológico Latinoaméricano</t>
-  </si>
-  <si>
-    <t>Consejo de Ciencia y Tecnología del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>Encargado de Departamento de Vinculación</t>
-  </si>
-  <si>
-    <t>Logística</t>
-  </si>
-  <si>
-    <t>Constructura Stratto S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>Gerente General</t>
-  </si>
-  <si>
-    <t>Presidencia Municipal de Pachuca</t>
-  </si>
-  <si>
-    <t>Coordinador Operativo de la Dirección de Reglamentos y Espectaculos del Mpio</t>
-  </si>
-  <si>
-    <t>Hospital General de Pachuca</t>
-  </si>
-  <si>
-    <t>Tecnico</t>
-  </si>
-  <si>
-    <t>Mantenimiento a Intalaciones</t>
-  </si>
-  <si>
-    <t>Tecnología Electrico Digital  Pachuca</t>
-  </si>
-  <si>
-    <t>Reparación  de aparatos</t>
-  </si>
-  <si>
-    <t>CBTIS Centro de Bachillerato Tecnológico Industrial y de Servicios</t>
-  </si>
-  <si>
-    <t>Encargado de Mantenimiento</t>
-  </si>
-  <si>
-    <t>Intalaciones</t>
-  </si>
-  <si>
     <t>Universidad Autonoma del Estado de Hidalgo</t>
   </si>
   <si>
@@ -1890,25 +1889,40 @@
     <t>Jardín de Niños Berta Von Glümer</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1_DtKu0Zm7R09FJdUDpKFd0DIkiHBUvjG/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1k0STeQPJB0fhS0gK06p1FSH0N8Z5QU7D/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1x4nJrefHhUFdAlw8q9CmkwK7OFa3PLt0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Et4oEbEf5Y6eFPFl5WAnkLHqsDi5GXB9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MjH1MlsiI3KipKEhXHCsEnsOniSoysba/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1skM3taDbIvXCxIsj9J9vBZyb-HgCUkiy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18_Gssew7UX9RtcQXnQb99tcfVpzEpRNp/view?usp=sharing</t>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
+  </si>
+  <si>
+    <t>Administración de Empresas</t>
+  </si>
+  <si>
+    <t>Givaudan Cuernavaca</t>
+  </si>
+  <si>
+    <t>Encargada de inventarios</t>
+  </si>
+  <si>
+    <t>Colegio de Estudios Científicos y Tecnológicos del Estado de Hidalgo (Plantel Tepehuacán)</t>
+  </si>
+  <si>
+    <t>Coordinador de administración</t>
+  </si>
+  <si>
+    <t>Colegio de Estudios Científicos y Tecnológicos del Estado de Hidalgo (Oficina Central)</t>
+  </si>
+  <si>
+    <t>Coordinador del Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IUNgvGvRxmtucHXNkn_j3JMjqu_Ki1XT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MP_NQnr0IclEqCTf7L0QA0HVGe8TxWwS/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1928,13 +1942,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1990,7 +2002,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1999,9 +2013,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2011,7 +2023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2019,13 +2031,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2038,44 +2050,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2359,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="K55" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,22 +2371,22 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="53" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="46" customWidth="1"/>
-    <col min="13" max="13" width="97.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="98.140625" customWidth="1"/>
     <col min="14" max="14" width="74" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2392,16 +2395,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
@@ -2409,27 +2412,25 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2550,27 +2551,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2631,15 +2632,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44469</v>
+      <c r="B8" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44561</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>77</v>
@@ -2674,27 +2675,27 @@
       <c r="N8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S8" s="3"/>
+      <c r="Q8" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R8" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44469</v>
+      <c r="B9" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44561</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>85</v>
@@ -2729,29 +2730,29 @@
       <c r="N9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="Q9" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R9" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2021</v>
       </c>
-      <c r="B10" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44469</v>
+      <c r="B10" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44561</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>91</v>
@@ -2786,27 +2787,27 @@
       <c r="N10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="Q10" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R10" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2021</v>
       </c>
-      <c r="B11" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44469</v>
+      <c r="B11" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44561</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>97</v>
@@ -2841,29 +2842,29 @@
       <c r="N11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>383</v>
+      <c r="Q11" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R11" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>2021</v>
       </c>
-      <c r="B12" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44469</v>
+      <c r="B12" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44561</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>102</v>
@@ -2898,27 +2899,27 @@
       <c r="N12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q12" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R12" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="Q12" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R12" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2021</v>
       </c>
-      <c r="B13" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44469</v>
+      <c r="B13" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44561</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>102</v>
@@ -2953,27 +2954,27 @@
       <c r="N13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R13" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R13" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>2021</v>
       </c>
-      <c r="B14" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44469</v>
+      <c r="B14" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44561</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>102</v>
@@ -3008,27 +3009,27 @@
       <c r="N14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R14" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S14" s="3"/>
+      <c r="Q14" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R14" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2021</v>
       </c>
-      <c r="B15" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44469</v>
+      <c r="B15" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44561</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>102</v>
@@ -3063,27 +3064,27 @@
       <c r="N15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R15" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="Q15" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R15" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2021</v>
       </c>
-      <c r="B16" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44469</v>
+      <c r="B16" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44561</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>102</v>
@@ -3118,27 +3119,27 @@
       <c r="N16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q16" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R16" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="Q16" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R16" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2021</v>
       </c>
-      <c r="B17" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44469</v>
+      <c r="B17" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44561</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>102</v>
@@ -3173,29 +3174,29 @@
       <c r="N17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R17" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="Q17" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R17" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2021</v>
       </c>
-      <c r="B18" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C18" s="4">
-        <v>44469</v>
+      <c r="B18" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44561</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>102</v>
@@ -3230,27 +3231,27 @@
       <c r="N18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R18" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S18" s="3"/>
+      <c r="Q18" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R18" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2021</v>
       </c>
-      <c r="B19" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C19" s="4">
-        <v>44469</v>
+      <c r="B19" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44561</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>144</v>
@@ -3285,29 +3286,29 @@
       <c r="N19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R19" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>384</v>
+      <c r="Q19" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R19" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>2021</v>
       </c>
-      <c r="B20" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C20" s="4">
-        <v>44469</v>
+      <c r="B20" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44561</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>144</v>
@@ -3342,27 +3343,27 @@
       <c r="N20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="5"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q20" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R20" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R20" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>2021</v>
       </c>
-      <c r="B21" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C21" s="4">
-        <v>44469</v>
+      <c r="B21" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44561</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>144</v>
@@ -3397,27 +3398,27 @@
       <c r="N21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R21" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S21" s="3"/>
+      <c r="Q21" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R21" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>2021</v>
       </c>
-      <c r="B22" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C22" s="4">
-        <v>44469</v>
+      <c r="B22" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44561</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>144</v>
@@ -3452,32 +3453,32 @@
       <c r="N22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R22" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S22" s="3"/>
+      <c r="Q22" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R22" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>2021</v>
       </c>
-      <c r="B23" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C23" s="4">
-        <v>44469</v>
+      <c r="B23" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44561</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -3507,29 +3508,29 @@
       <c r="N23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R23" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>384</v>
+      <c r="Q23" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R23" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>2021</v>
       </c>
-      <c r="B24" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C24" s="4">
-        <v>44469</v>
+      <c r="B24" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44561</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>144</v>
@@ -3564,27 +3565,27 @@
       <c r="N24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="5"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R24" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S24" s="3"/>
+      <c r="Q24" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R24" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>2021</v>
       </c>
-      <c r="B25" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C25" s="4">
-        <v>44469</v>
+      <c r="B25" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44561</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>144</v>
@@ -3619,27 +3620,27 @@
       <c r="N25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q25" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R25" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S25" s="3"/>
+      <c r="Q25" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R25" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>2021</v>
       </c>
-      <c r="B26" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C26" s="4">
-        <v>44469</v>
+      <c r="B26" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44561</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>144</v>
@@ -3674,29 +3675,29 @@
       <c r="N26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R26" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>384</v>
+      <c r="Q26" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R26" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>2021</v>
       </c>
-      <c r="B27" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C27" s="4">
-        <v>44469</v>
+      <c r="B27" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44561</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>144</v>
@@ -3731,27 +3732,27 @@
       <c r="N27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R27" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="Q27" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R27" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>2021</v>
       </c>
-      <c r="B28" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C28" s="4">
-        <v>44469</v>
+      <c r="B28" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44561</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>190</v>
@@ -3786,29 +3787,29 @@
       <c r="N28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q28" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R28" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>383</v>
+      <c r="Q28" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R28" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>2021</v>
       </c>
-      <c r="B29" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44469</v>
+      <c r="B29" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44561</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>195</v>
@@ -3817,181 +3818,181 @@
         <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7">
         <v>22</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q29" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R29" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="Q29" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R29" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>2021</v>
       </c>
-      <c r="B30" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C30" s="4">
-        <v>44469</v>
+      <c r="B30" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44561</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7">
         <v>23</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="5"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R30" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S30" s="3"/>
+      <c r="Q30" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R30" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>2021</v>
       </c>
-      <c r="B31" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C31" s="4">
-        <v>44469</v>
+      <c r="B31" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44561</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>187</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7">
         <v>24</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="5"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q31" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R31" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S31" s="3"/>
+      <c r="Q31" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R31" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>2021</v>
       </c>
-      <c r="B32" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C32" s="4">
-        <v>44469</v>
+      <c r="B32" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44561</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>62</v>
@@ -4003,50 +4004,50 @@
         <v>25</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q32" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R32" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="Q32" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R32" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>2021</v>
       </c>
-      <c r="B33" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C33" s="4">
-        <v>44469</v>
+      <c r="B33" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44561</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -4058,273 +4059,273 @@
         <v>26</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>620</v>
+        <v>227</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q33" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R33" s="4">
-        <v>44480</v>
+      <c r="Q33" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R33" s="5">
+        <v>44571</v>
       </c>
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>2021</v>
       </c>
-      <c r="B34" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C34" s="4">
-        <v>44469</v>
+      <c r="B34" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44561</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7">
         <v>27</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>621</v>
+        <v>234</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="5"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q34" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R34" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S34" s="3"/>
+      <c r="Q34" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R34" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>2021</v>
       </c>
-      <c r="B35" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C35" s="4">
-        <v>44469</v>
+      <c r="B35" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44561</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7">
         <v>28</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="5"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q35" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R35" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>383</v>
+      <c r="Q35" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R35" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>2021</v>
       </c>
-      <c r="B36" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C36" s="4">
-        <v>44469</v>
+      <c r="B36" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44561</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7">
         <v>29</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O36" s="5"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q36" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R36" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="Q36" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R36" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>2021</v>
       </c>
-      <c r="B37" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C37" s="4">
-        <v>44469</v>
+      <c r="B37" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C37" s="5">
+        <v>44561</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7">
         <v>30</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="5"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R37" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="Q37" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R37" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>2021</v>
       </c>
-      <c r="B38" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C38" s="4">
-        <v>44469</v>
+      <c r="B38" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44561</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>81</v>
@@ -4333,50 +4334,50 @@
         <v>59</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7">
         <v>31</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>622</v>
+        <v>263</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="5"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q38" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R38" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="Q38" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R38" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>2021</v>
       </c>
-      <c r="B39" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C39" s="4">
-        <v>44469</v>
+      <c r="B39" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44561</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>170</v>
@@ -4388,58 +4389,58 @@
         <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7">
         <v>32</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q39" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R39" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>384</v>
+      <c r="Q39" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R39" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>2021</v>
       </c>
-      <c r="B40" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="4">
-        <v>44469</v>
+      <c r="B40" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C40" s="5">
+        <v>44561</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>59</v>
@@ -4451,221 +4452,223 @@
         <v>33</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="5"/>
+      <c r="O40" s="4"/>
       <c r="P40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q40" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R40" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>384</v>
+      <c r="Q40" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R40" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>2021</v>
       </c>
-      <c r="B41" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C41" s="4">
-        <v>44469</v>
+      <c r="B41" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C41" s="5">
+        <v>44561</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>271</v>
+        <v>389</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="L41" s="7">
         <v>34</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>274</v>
+        <v>630</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O41" s="5"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q41" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R41" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S41" s="3"/>
+      <c r="Q41" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R41" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>2021</v>
       </c>
-      <c r="B42" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C42" s="4">
-        <v>44469</v>
+      <c r="B42" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C42" s="5">
+        <v>44561</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L42" s="7">
         <v>35</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q42" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R42" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="Q42" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R42" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>2021</v>
       </c>
-      <c r="B43" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C43" s="4">
-        <v>44469</v>
+      <c r="B43" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C43" s="5">
+        <v>44561</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>94</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L43" s="7">
         <v>36</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="O43" s="4"/>
       <c r="P43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R43" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>383</v>
+      <c r="Q43" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R43" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>2021</v>
       </c>
-      <c r="B44" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C44" s="4">
-        <v>44469</v>
+      <c r="B44" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C44" s="5">
+        <v>44561</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>60</v>
@@ -4677,661 +4680,659 @@
         <v>37</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="5"/>
+      <c r="O44" s="4"/>
       <c r="P44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R44" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S44" s="3"/>
-    </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="Q44" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R44" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>2021</v>
       </c>
-      <c r="B45" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C45" s="4">
-        <v>44469</v>
+      <c r="B45" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44561</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L45" s="6">
         <v>38</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>297</v>
+      <c r="M45" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O45" s="5"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q45" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R45" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="Q45" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R45" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>2021</v>
       </c>
-      <c r="B46" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C46" s="4">
-        <v>44469</v>
+      <c r="B46" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44561</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L46" s="7">
         <v>39</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O46" s="5"/>
+      <c r="O46" s="4"/>
       <c r="P46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R46" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S46" s="3"/>
-    </row>
-    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="Q46" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R46" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>2021</v>
       </c>
-      <c r="B47" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C47" s="4">
-        <v>44469</v>
+      <c r="B47" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C47" s="5">
+        <v>44561</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L47" s="7">
         <v>40</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O47" s="5"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q47" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R47" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="Q47" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R47" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>2021</v>
       </c>
-      <c r="B48" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C48" s="4">
-        <v>44469</v>
+      <c r="B48" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44561</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L48" s="7">
         <v>41</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>623</v>
+        <v>319</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O48" s="5"/>
+      <c r="O48" s="4"/>
       <c r="P48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R48" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S48" s="3"/>
+      <c r="Q48" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R48" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>2021</v>
       </c>
-      <c r="B49" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C49" s="4">
-        <v>44469</v>
+      <c r="B49" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C49" s="5">
+        <v>44561</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>232</v>
+        <v>321</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>387</v>
+        <v>214</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="L49" s="7">
         <v>42</v>
       </c>
-      <c r="M49" s="16" t="s">
-        <v>626</v>
+      <c r="M49" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O49" s="5"/>
+      <c r="O49" s="4"/>
       <c r="P49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q49" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R49" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="Q49" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R49" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S49" s="4"/>
     </row>
     <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>2021</v>
       </c>
-      <c r="B50" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C50" s="4">
-        <v>44469</v>
+      <c r="B50" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C50" s="5">
+        <v>44561</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L50" s="7">
         <v>43</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>624</v>
+        <v>328</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R50" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S50" s="3"/>
+      <c r="Q50" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R50" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>2021</v>
       </c>
-      <c r="B51" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C51" s="4">
-        <v>44469</v>
+      <c r="B51" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C51" s="5">
+        <v>44561</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L51" s="7">
         <v>44</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="O51" s="4"/>
       <c r="P51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q51" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R51" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S51" s="3"/>
+      <c r="Q51" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R51" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S51" s="4"/>
     </row>
     <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>2021</v>
       </c>
-      <c r="B52" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C52" s="4">
-        <v>44469</v>
+      <c r="B52" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C52" s="5">
+        <v>44561</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L52" s="7">
         <v>45</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="O52" s="4"/>
       <c r="P52" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q52" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R52" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S52" s="3"/>
-    </row>
-    <row r="53" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="Q52" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R52" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>2021</v>
       </c>
-      <c r="B53" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C53" s="4">
-        <v>44469</v>
+      <c r="B53" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C53" s="5">
+        <v>44561</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L53" s="6">
         <v>46</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>625</v>
+        <v>345</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="4"/>
       <c r="P53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R53" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S53" s="3"/>
+      <c r="Q53" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R53" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S53" s="4"/>
     </row>
     <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>2021</v>
       </c>
-      <c r="B54" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C54" s="4">
-        <v>44469</v>
+      <c r="B54" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C54" s="5">
+        <v>44561</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="L54" s="7">
         <v>47</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O54" s="5"/>
+      <c r="O54" s="4"/>
       <c r="P54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q54" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R54" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S54" s="3"/>
+      <c r="Q54" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R54" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>2021</v>
       </c>
-      <c r="B55" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C55" s="4">
-        <v>44469</v>
+      <c r="B55" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C55" s="5">
+        <v>44561</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L55" s="7">
         <v>48</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O55" s="5"/>
+      <c r="O55" s="4"/>
       <c r="P55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R55" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>383</v>
+      <c r="Q55" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R55" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>2021</v>
       </c>
-      <c r="B56" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C56" s="4">
-        <v>44469</v>
+      <c r="B56" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C56" s="5">
+        <v>44561</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>59</v>
@@ -5343,264 +5344,264 @@
         <v>49</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O56" s="5"/>
+      <c r="O56" s="4"/>
       <c r="P56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q56" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R56" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>383</v>
+      <c r="Q56" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R56" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>2021</v>
       </c>
-      <c r="B57" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C57" s="4">
-        <v>44469</v>
+      <c r="B57" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44561</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="L57" s="7">
         <v>50</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O57" s="5"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q57" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R57" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S57" s="3"/>
-    </row>
-    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="Q57" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R57" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>2021</v>
       </c>
-      <c r="B58" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C58" s="4">
-        <v>44469</v>
+      <c r="B58" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C58" s="5">
+        <v>44561</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L58" s="7">
         <v>51</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O58" s="5"/>
+      <c r="O58" s="4"/>
       <c r="P58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q58" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R58" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S58" s="3"/>
+      <c r="Q58" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R58" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S58" s="4"/>
     </row>
     <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>2021</v>
       </c>
-      <c r="B59" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C59" s="4">
-        <v>44469</v>
+      <c r="B59" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C59" s="5">
+        <v>44561</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L59" s="7">
         <v>52</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O59" s="5"/>
+      <c r="O59" s="4"/>
       <c r="P59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R59" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S59" s="3" t="s">
+      <c r="Q59" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R59" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C60" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C60" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="I60" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L60" s="7">
         <v>53</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O60" s="5"/>
+      <c r="O60" s="4"/>
       <c r="P60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q60" s="4">
-        <v>44480</v>
-      </c>
-      <c r="R60" s="4">
-        <v>44480</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>384</v>
+      <c r="Q60" s="5">
+        <v>44571</v>
+      </c>
+      <c r="R60" s="5">
+        <v>44571</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:S6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J57:K57 K52 J8:J44 J46:J48 J50:J56 J58:J94">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J54:K54 K52 J8:J44 J46:J48 J50:J53 J55:J90">
       <formula1>Hidden_19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N94">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N90">
       <formula1>Hidden_213</formula1>
     </dataValidation>
   </dataValidations>
@@ -5633,32 +5634,33 @@
     <hyperlink ref="M46" r:id="rId26"/>
     <hyperlink ref="M47" r:id="rId27"/>
     <hyperlink ref="M51" r:id="rId28"/>
-    <hyperlink ref="M54" r:id="rId29"/>
-    <hyperlink ref="M55" r:id="rId30"/>
-    <hyperlink ref="M56" r:id="rId31"/>
-    <hyperlink ref="M59" r:id="rId32"/>
-    <hyperlink ref="M60" r:id="rId33"/>
-    <hyperlink ref="M57" r:id="rId34"/>
-    <hyperlink ref="M32" r:id="rId35"/>
-    <hyperlink ref="M52" r:id="rId36"/>
-    <hyperlink ref="M58" r:id="rId37"/>
-    <hyperlink ref="M16" r:id="rId38"/>
-    <hyperlink ref="M13" r:id="rId39"/>
-    <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M45" r:id="rId41"/>
-    <hyperlink ref="M26" r:id="rId42"/>
-    <hyperlink ref="M23" r:id="rId43"/>
-    <hyperlink ref="M12" r:id="rId44"/>
-    <hyperlink ref="M27" r:id="rId45"/>
-    <hyperlink ref="M31" r:id="rId46"/>
-    <hyperlink ref="M33" r:id="rId47"/>
-    <hyperlink ref="M34" r:id="rId48"/>
-    <hyperlink ref="M38" r:id="rId49"/>
-    <hyperlink ref="M48" r:id="rId50"/>
-    <hyperlink ref="M50" r:id="rId51"/>
+    <hyperlink ref="M55" r:id="rId29"/>
+    <hyperlink ref="M56" r:id="rId30"/>
+    <hyperlink ref="M59" r:id="rId31"/>
+    <hyperlink ref="M60" r:id="rId32"/>
+    <hyperlink ref="M54" r:id="rId33"/>
+    <hyperlink ref="M32" r:id="rId34"/>
+    <hyperlink ref="M52" r:id="rId35"/>
+    <hyperlink ref="M58" r:id="rId36"/>
+    <hyperlink ref="M16" r:id="rId37"/>
+    <hyperlink ref="M13" r:id="rId38"/>
+    <hyperlink ref="M45" r:id="rId39"/>
+    <hyperlink ref="M26" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="M12" r:id="rId42"/>
+    <hyperlink ref="M27" r:id="rId43"/>
+    <hyperlink ref="M31" r:id="rId44"/>
+    <hyperlink ref="M33" r:id="rId45"/>
+    <hyperlink ref="M34" r:id="rId46"/>
+    <hyperlink ref="M38" r:id="rId47"/>
+    <hyperlink ref="M48" r:id="rId48"/>
+    <hyperlink ref="M50" r:id="rId49"/>
+    <hyperlink ref="M57" r:id="rId50"/>
+    <hyperlink ref="M41" r:id="rId51"/>
     <hyperlink ref="M49" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -5750,10 +5752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,2556 +5823,2539 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>38718</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>38837</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>374</v>
+      <c r="D4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>35499</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>35864</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13">
+        <v>38792</v>
+      </c>
+      <c r="C6" s="13">
+        <v>38817</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13">
+        <v>38888</v>
+      </c>
+      <c r="C7" s="13">
+        <v>39400</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13">
+        <v>37265</v>
+      </c>
+      <c r="C8" s="13">
+        <v>37481</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <v>37265</v>
+      </c>
+      <c r="C9" s="13">
+        <v>37481</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>37511</v>
+      </c>
+      <c r="C10" s="13">
+        <v>37602</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13">
+        <v>37265</v>
+      </c>
+      <c r="C11" s="13">
+        <v>37481</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13">
+        <v>37511</v>
+      </c>
+      <c r="C12" s="13">
+        <v>37602</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>43132</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44058</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13">
+        <v>41791</v>
+      </c>
+      <c r="C14" s="13">
+        <v>41671</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13">
+        <v>41275</v>
+      </c>
+      <c r="C15" s="13">
+        <v>41791</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13">
+        <v>32660</v>
+      </c>
+      <c r="C16" s="13">
+        <v>34122</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13">
+        <v>31898</v>
+      </c>
+      <c r="C17" s="13">
+        <v>32755</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13">
+        <v>29342</v>
+      </c>
+      <c r="C18" s="13">
+        <v>30929</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>7</v>
+      </c>
+      <c r="B19" s="13">
+        <v>40674</v>
+      </c>
+      <c r="C19" s="13">
+        <v>42577</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13">
+        <v>40183</v>
+      </c>
+      <c r="C20" s="13">
+        <v>40870</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13">
+        <v>37258</v>
+      </c>
+      <c r="C21" s="13">
+        <v>39645</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13">
+        <v>43434</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43516</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13">
+        <v>43191</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43434</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13">
+        <v>42887</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43191</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13">
+        <v>41836</v>
+      </c>
+      <c r="C25" s="13">
+        <v>42618</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>9</v>
+      </c>
+      <c r="B26" s="13">
+        <v>42644</v>
+      </c>
+      <c r="C26" s="13">
+        <v>42794</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="13">
+        <v>42795</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43738</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13">
+        <v>38727</v>
+      </c>
+      <c r="C28" s="13">
+        <v>39049</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29" s="13">
+        <v>39210</v>
+      </c>
+      <c r="C29" s="13">
+        <v>40050</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13">
+        <v>39099</v>
+      </c>
+      <c r="C30" s="13">
+        <v>42837</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13">
+        <v>39190</v>
+      </c>
+      <c r="C31" s="13">
+        <v>39406</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>11</v>
+      </c>
+      <c r="B32" s="13">
+        <v>38719</v>
+      </c>
+      <c r="C32" s="13">
+        <v>39428</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>12</v>
+      </c>
+      <c r="B33" s="13">
+        <v>40344</v>
+      </c>
+      <c r="C33" s="13">
+        <v>40771</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>13</v>
+      </c>
+      <c r="B34" s="13">
+        <v>34193</v>
+      </c>
+      <c r="C34" s="13">
+        <v>35059</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>13</v>
+      </c>
+      <c r="B35" s="13">
+        <v>34562</v>
+      </c>
+      <c r="C35" s="13">
+        <v>36717</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>13</v>
+      </c>
+      <c r="B36" s="13">
+        <v>37172</v>
+      </c>
+      <c r="C36" s="13">
+        <v>39895</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>14</v>
+      </c>
+      <c r="B37" s="13">
+        <v>37410</v>
+      </c>
+      <c r="C37" s="13">
+        <v>38496</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>14</v>
+      </c>
+      <c r="B38" s="13">
+        <v>36971</v>
+      </c>
+      <c r="C38" s="13">
+        <v>37488</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>14</v>
+      </c>
+      <c r="B39" s="13">
+        <v>35555</v>
+      </c>
+      <c r="C39" s="13">
+        <v>36409</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>15</v>
+      </c>
+      <c r="B40" s="13">
+        <v>39154</v>
+      </c>
+      <c r="C40" s="13">
+        <v>39959</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>15</v>
+      </c>
+      <c r="B41" s="13">
+        <v>38790</v>
+      </c>
+      <c r="C41" s="13">
+        <v>39163</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>15</v>
+      </c>
+      <c r="B42" s="13">
+        <v>38454</v>
+      </c>
+      <c r="C42" s="13">
+        <v>39043</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>16</v>
+      </c>
+      <c r="B43" s="13">
+        <v>40344</v>
+      </c>
+      <c r="C43" s="13">
+        <v>40771</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>17</v>
+      </c>
+      <c r="B44" s="13">
+        <v>41772</v>
+      </c>
+      <c r="C44" s="13">
+        <v>43131</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>17</v>
+      </c>
+      <c r="B45" s="13">
+        <v>40227</v>
+      </c>
+      <c r="C45" s="13">
+        <v>41654</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>17</v>
+      </c>
+      <c r="B46" s="13">
+        <v>39461</v>
+      </c>
+      <c r="C46" s="13">
+        <v>40192</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>18</v>
+      </c>
+      <c r="B47" s="13">
+        <v>37712</v>
+      </c>
+      <c r="C47" s="13">
+        <v>37908</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>18</v>
+      </c>
+      <c r="B48" s="13">
+        <v>39455</v>
+      </c>
+      <c r="C48" s="13">
+        <v>41380</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>18</v>
+      </c>
+      <c r="B49" s="13">
+        <v>36446</v>
+      </c>
+      <c r="C49" s="13">
+        <v>36782</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>19</v>
+      </c>
+      <c r="B50" s="13">
+        <v>39314</v>
+      </c>
+      <c r="C50" s="13">
+        <v>39673</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>20</v>
+      </c>
+      <c r="B51" s="13">
+        <v>38473</v>
+      </c>
+      <c r="C51" s="13">
+        <v>38960</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>21</v>
+      </c>
+      <c r="B52" s="13">
+        <v>40301</v>
+      </c>
+      <c r="C52" s="13">
+        <v>40764</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>21</v>
+      </c>
+      <c r="B53" s="13">
+        <v>38112</v>
+      </c>
+      <c r="C53" s="13">
+        <v>40457</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>22</v>
+      </c>
+      <c r="B54" s="13">
+        <v>38020</v>
+      </c>
+      <c r="C54" s="13">
+        <v>38664</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>22</v>
+      </c>
+      <c r="B55" s="13">
+        <v>38679</v>
+      </c>
+      <c r="C55" s="13">
+        <v>38911</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>22</v>
+      </c>
+      <c r="B56" s="13">
+        <v>38751</v>
+      </c>
+      <c r="C56" s="13">
+        <v>39638</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>23</v>
+      </c>
+      <c r="B57" s="13">
+        <v>40547</v>
+      </c>
+      <c r="C57" s="13">
+        <v>41387</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>23</v>
+      </c>
+      <c r="B58" s="13">
+        <v>41444</v>
+      </c>
+      <c r="C58" s="13">
+        <v>41607</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>23</v>
+      </c>
+      <c r="B59" s="13">
+        <v>40203</v>
+      </c>
+      <c r="C59" s="13">
+        <v>40541</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>24</v>
+      </c>
+      <c r="B60" s="13">
+        <v>39387</v>
+      </c>
+      <c r="C60" s="13">
+        <v>40668</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>24</v>
+      </c>
+      <c r="B61" s="13">
+        <v>40913</v>
+      </c>
+      <c r="C61" s="13">
+        <v>42397</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>24</v>
+      </c>
+      <c r="B62" s="13">
+        <v>42398</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>25</v>
+      </c>
+      <c r="B63" s="13">
+        <v>40544</v>
+      </c>
+      <c r="C63" s="13">
+        <v>41851</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>25</v>
+      </c>
+      <c r="B64" s="13">
+        <v>41852</v>
+      </c>
+      <c r="C64" s="13">
+        <v>42261</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>25</v>
+      </c>
+      <c r="B65" s="13">
+        <v>42262</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>26</v>
+      </c>
+      <c r="B66" s="13">
+        <v>40210</v>
+      </c>
+      <c r="C66" s="13">
+        <v>42004</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>26</v>
+      </c>
+      <c r="B67" s="13">
+        <v>42005</v>
+      </c>
+      <c r="C67" s="13">
+        <v>42643</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>26</v>
+      </c>
+      <c r="B68" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C68" s="13">
+        <v>43159</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>27</v>
+      </c>
+      <c r="B69" s="13">
+        <v>42948</v>
+      </c>
+      <c r="C69" s="13">
+        <v>43281</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>27</v>
+      </c>
+      <c r="B70" s="13">
+        <v>43070</v>
+      </c>
+      <c r="C70" s="13">
+        <v>42948</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>27</v>
+      </c>
+      <c r="B71" s="13">
+        <v>42614</v>
+      </c>
+      <c r="C71" s="13">
+        <v>42704</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>28</v>
+      </c>
+      <c r="B72" s="13">
+        <v>42528</v>
+      </c>
+      <c r="C72" s="13">
+        <v>42737</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>28</v>
+      </c>
+      <c r="B73" s="13">
+        <v>37653</v>
+      </c>
+      <c r="C73" s="13">
+        <v>37894</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>29</v>
+      </c>
+      <c r="B74" s="13">
+        <v>37266</v>
+      </c>
+      <c r="C74" s="13">
+        <v>37908</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>30</v>
+      </c>
+      <c r="B75" s="13">
+        <v>37653</v>
+      </c>
+      <c r="C75" s="13">
+        <v>37894</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>30</v>
+      </c>
+      <c r="B76" s="13">
+        <v>37895</v>
+      </c>
+      <c r="C76" s="13">
+        <v>38748</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>31</v>
+      </c>
+      <c r="B77" s="13">
+        <v>42887</v>
+      </c>
+      <c r="C77" s="13">
+        <v>43516</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>31</v>
+      </c>
+      <c r="B78" s="13">
+        <v>42248</v>
+      </c>
+      <c r="C78" s="13">
+        <v>42886</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>31</v>
+      </c>
+      <c r="B79" s="13">
+        <v>42125</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>32</v>
+      </c>
+      <c r="B80" s="13">
+        <v>37653</v>
+      </c>
+      <c r="C80" s="13">
+        <v>37894</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>33</v>
+      </c>
+      <c r="B81" s="13">
+        <v>36592</v>
+      </c>
+      <c r="C81" s="13">
+        <v>38763</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>34</v>
+      </c>
+      <c r="B82" s="13">
+        <v>40969</v>
+      </c>
+      <c r="C82" s="13">
+        <v>41305</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>35</v>
+      </c>
+      <c r="B83" s="13">
+        <v>40576</v>
+      </c>
+      <c r="C83" s="13">
+        <v>41162</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>35</v>
+      </c>
+      <c r="B84" s="13">
+        <v>40549</v>
+      </c>
+      <c r="C84" s="13">
+        <v>40898</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>36</v>
+      </c>
+      <c r="B85" s="13">
+        <v>38749</v>
+      </c>
+      <c r="C85" s="13">
+        <v>38807</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>36</v>
+      </c>
+      <c r="B86" s="13">
+        <v>38777</v>
+      </c>
+      <c r="C86" s="13">
+        <v>38821</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>37</v>
+      </c>
+      <c r="B87" s="13">
+        <v>40344</v>
+      </c>
+      <c r="C87" s="13">
+        <v>40771</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14">
-        <v>38792</v>
-      </c>
-      <c r="C6" s="14">
-        <v>38817</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14">
-        <v>38888</v>
-      </c>
-      <c r="C7" s="14">
-        <v>39400</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="14">
-        <v>37265</v>
-      </c>
-      <c r="C8" s="14">
-        <v>37481</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14">
-        <v>37265</v>
-      </c>
-      <c r="C9" s="14">
-        <v>37481</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E87" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14">
-        <v>37511</v>
-      </c>
-      <c r="C10" s="14">
-        <v>37602</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14">
-        <v>37265</v>
-      </c>
-      <c r="C11" s="14">
-        <v>37481</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>37</v>
+      </c>
+      <c r="B88" s="13">
+        <v>38049</v>
+      </c>
+      <c r="C88" s="13">
+        <v>38552</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>37</v>
+      </c>
+      <c r="B89" s="13">
+        <v>37292</v>
+      </c>
+      <c r="C89" s="13">
+        <v>37998</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>38</v>
+      </c>
+      <c r="B90" s="13">
+        <v>41487</v>
+      </c>
+      <c r="C90" s="13">
+        <v>41805</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>38</v>
+      </c>
+      <c r="B91" s="13">
+        <v>41883</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>38</v>
+      </c>
+      <c r="B92" s="13">
+        <v>41806</v>
+      </c>
+      <c r="C92" s="13">
+        <v>42643</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>39</v>
+      </c>
+      <c r="B93" s="13">
+        <v>33666</v>
+      </c>
+      <c r="C93" s="13">
+        <v>34164</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <v>37511</v>
-      </c>
-      <c r="C12" s="14">
-        <v>37602</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14">
-        <v>43132</v>
-      </c>
-      <c r="C13" s="14">
-        <v>44058</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14">
-        <v>41791</v>
-      </c>
-      <c r="C14" s="14">
-        <v>41671</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>5</v>
-      </c>
-      <c r="B15" s="14">
-        <v>41275</v>
-      </c>
-      <c r="C15" s="14">
-        <v>41791</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14">
-        <v>32660</v>
-      </c>
-      <c r="C16" s="14">
-        <v>34122</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>6</v>
-      </c>
-      <c r="B17" s="14">
-        <v>31898</v>
-      </c>
-      <c r="C17" s="14">
-        <v>32755</v>
-      </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>39</v>
+      </c>
+      <c r="B94" s="13">
+        <v>33666</v>
+      </c>
+      <c r="C94" s="13">
+        <v>34164</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>39</v>
+      </c>
+      <c r="B95" s="13">
+        <v>35479</v>
+      </c>
+      <c r="C95" s="13">
+        <v>36936</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>40</v>
+      </c>
+      <c r="B96" s="13">
+        <v>36586</v>
+      </c>
+      <c r="C96" s="13">
+        <v>37139</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>40</v>
+      </c>
+      <c r="B97" s="13">
+        <v>37719</v>
+      </c>
+      <c r="C97" s="13">
+        <v>38078</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>41</v>
+      </c>
+      <c r="B98" s="13">
+        <v>38020</v>
+      </c>
+      <c r="C98" s="13">
+        <v>38664</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>41</v>
+      </c>
+      <c r="B99" s="13">
+        <v>40179</v>
+      </c>
+      <c r="C99" s="13">
+        <v>40909</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>41</v>
+      </c>
+      <c r="B100" s="13">
+        <v>42374</v>
+      </c>
+      <c r="C100" s="13">
+        <v>42753</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>42</v>
+      </c>
+      <c r="B101" s="13">
+        <v>34654</v>
+      </c>
+      <c r="C101" s="13">
+        <v>35308</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>42</v>
+      </c>
+      <c r="B102" s="13">
+        <v>35309</v>
+      </c>
+      <c r="C102" s="13">
+        <v>38017</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>42</v>
+      </c>
+      <c r="B103" s="13">
+        <v>38018</v>
+      </c>
+      <c r="C103" s="13">
+        <v>42870</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>43</v>
+      </c>
+      <c r="B104" s="13">
+        <v>37803</v>
+      </c>
+      <c r="C104" s="13">
+        <v>37940</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>43</v>
+      </c>
+      <c r="B105" s="13">
+        <v>37941</v>
+      </c>
+      <c r="C105" s="13">
+        <v>38352</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>43</v>
+      </c>
+      <c r="B106" s="13">
+        <v>38353</v>
+      </c>
+      <c r="C106" s="13">
+        <v>39202</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>44</v>
+      </c>
+      <c r="B107" s="13">
+        <v>36161</v>
+      </c>
+      <c r="C107" s="13">
+        <v>40056</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>44</v>
+      </c>
+      <c r="B108" s="13">
+        <v>35370</v>
+      </c>
+      <c r="C108" s="13">
+        <v>36160</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>44</v>
+      </c>
+      <c r="B109" s="13">
+        <v>34394</v>
+      </c>
+      <c r="C109" s="13">
+        <v>35246</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>45</v>
+      </c>
+      <c r="B110" s="13">
+        <v>41867</v>
+      </c>
+      <c r="C110" s="13">
+        <v>42429</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>45</v>
+      </c>
+      <c r="B111" s="13">
+        <v>42430</v>
+      </c>
+      <c r="C111" s="13">
+        <v>42521</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>45</v>
+      </c>
+      <c r="B112" s="13">
+        <v>42522</v>
+      </c>
+      <c r="C112" s="13">
+        <v>43159</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>46</v>
+      </c>
+      <c r="B113" s="13">
+        <v>43344</v>
+      </c>
+      <c r="C113" s="13">
+        <v>43435</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>6</v>
-      </c>
-      <c r="B18" s="14">
-        <v>29342</v>
-      </c>
-      <c r="C18" s="14">
-        <v>30929</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14">
-        <v>40674</v>
-      </c>
-      <c r="C19" s="14">
-        <v>42577</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="F19" s="13" t="s">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>46</v>
+      </c>
+      <c r="B114" s="13">
+        <v>43710</v>
+      </c>
+      <c r="C114" s="13">
+        <v>44074</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>46</v>
+      </c>
+      <c r="B115" s="13">
+        <v>44110</v>
+      </c>
+      <c r="C115" s="13">
+        <v>44270</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>47</v>
+      </c>
+      <c r="B116" s="13">
+        <v>33772</v>
+      </c>
+      <c r="C116" s="13">
+        <v>34171</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>47</v>
+      </c>
+      <c r="B117" s="13">
+        <v>34521</v>
+      </c>
+      <c r="C117" s="13">
+        <v>34702</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>47</v>
+      </c>
+      <c r="B118" s="13">
+        <v>34898</v>
+      </c>
+      <c r="C118" s="13">
+        <v>36605</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>48</v>
+      </c>
+      <c r="B119" s="13">
+        <v>37994</v>
+      </c>
+      <c r="C119" s="13">
+        <v>38427</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14">
-        <v>40183</v>
-      </c>
-      <c r="C20" s="14">
-        <v>40870</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <v>37258</v>
-      </c>
-      <c r="C21" s="14">
-        <v>39645</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
-        <v>43434</v>
-      </c>
-      <c r="C22" s="14">
-        <v>43516</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14">
-        <v>43191</v>
-      </c>
-      <c r="C23" s="14">
-        <v>43434</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>8</v>
-      </c>
-      <c r="B24" s="14">
-        <v>42887</v>
-      </c>
-      <c r="C24" s="14">
-        <v>43191</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>9</v>
-      </c>
-      <c r="B25" s="14">
-        <v>41836</v>
-      </c>
-      <c r="C25" s="14">
-        <v>42618</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>9</v>
-      </c>
-      <c r="B26" s="14">
-        <v>42644</v>
-      </c>
-      <c r="C26" s="14">
-        <v>42794</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>9</v>
-      </c>
-      <c r="B27" s="14">
-        <v>42795</v>
-      </c>
-      <c r="C27" s="14">
-        <v>43738</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>10</v>
-      </c>
-      <c r="B28" s="14">
-        <v>38727</v>
-      </c>
-      <c r="C28" s="14">
-        <v>39049</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>10</v>
-      </c>
-      <c r="B29" s="14">
-        <v>39210</v>
-      </c>
-      <c r="C29" s="14">
-        <v>40050</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>11</v>
-      </c>
-      <c r="B30" s="14">
-        <v>39099</v>
-      </c>
-      <c r="C30" s="14">
-        <v>42837</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>11</v>
-      </c>
-      <c r="B31" s="14">
-        <v>39190</v>
-      </c>
-      <c r="C31" s="14">
-        <v>39406</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>11</v>
-      </c>
-      <c r="B32" s="14">
-        <v>38719</v>
-      </c>
-      <c r="C32" s="14">
-        <v>39428</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>12</v>
-      </c>
-      <c r="B33" s="14">
-        <v>40344</v>
-      </c>
-      <c r="C33" s="14">
-        <v>40771</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>13</v>
-      </c>
-      <c r="B34" s="14">
-        <v>34193</v>
-      </c>
-      <c r="C34" s="14">
-        <v>35059</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E34" s="13" t="s">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>48</v>
+      </c>
+      <c r="B120" s="13">
+        <v>37384</v>
+      </c>
+      <c r="C120" s="13">
+        <v>38006</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>49</v>
+      </c>
+      <c r="B121" s="13">
+        <v>38811</v>
+      </c>
+      <c r="C121" s="13">
+        <v>41528</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>49</v>
+      </c>
+      <c r="B122" s="13">
+        <v>37776</v>
+      </c>
+      <c r="C122" s="13">
+        <v>38965</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>50</v>
+      </c>
+      <c r="B123" s="13">
+        <v>37628</v>
+      </c>
+      <c r="C123" s="13">
+        <v>38903</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>50</v>
+      </c>
+      <c r="B124" s="13">
+        <v>37656</v>
+      </c>
+      <c r="C124" s="13">
+        <v>39946</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>13</v>
-      </c>
-      <c r="B35" s="14">
-        <v>34562</v>
-      </c>
-      <c r="C35" s="14">
-        <v>36717</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>13</v>
-      </c>
-      <c r="B36" s="14">
-        <v>37172</v>
-      </c>
-      <c r="C36" s="14">
-        <v>39895</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>14</v>
-      </c>
-      <c r="B37" s="14">
-        <v>37410</v>
-      </c>
-      <c r="C37" s="14">
-        <v>38496</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>14</v>
-      </c>
-      <c r="B38" s="14">
-        <v>36971</v>
-      </c>
-      <c r="C38" s="14">
-        <v>37488</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>14</v>
-      </c>
-      <c r="B39" s="14">
-        <v>35555</v>
-      </c>
-      <c r="C39" s="14">
-        <v>36409</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>15</v>
-      </c>
-      <c r="B40" s="14">
-        <v>39154</v>
-      </c>
-      <c r="C40" s="14">
-        <v>39959</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>15</v>
-      </c>
-      <c r="B41" s="14">
-        <v>38790</v>
-      </c>
-      <c r="C41" s="14">
-        <v>39163</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>15</v>
-      </c>
-      <c r="B42" s="14">
-        <v>38454</v>
-      </c>
-      <c r="C42" s="14">
-        <v>39043</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>16</v>
-      </c>
-      <c r="B43" s="14">
-        <v>40344</v>
-      </c>
-      <c r="C43" s="14">
-        <v>40771</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>17</v>
-      </c>
-      <c r="B44" s="14">
-        <v>41772</v>
-      </c>
-      <c r="C44" s="14">
-        <v>43131</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>17</v>
-      </c>
-      <c r="B45" s="14">
-        <v>40227</v>
-      </c>
-      <c r="C45" s="14">
-        <v>41654</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>17</v>
-      </c>
-      <c r="B46" s="14">
-        <v>39461</v>
-      </c>
-      <c r="C46" s="14">
-        <v>40192</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>18</v>
-      </c>
-      <c r="B47" s="14">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>50</v>
+      </c>
+      <c r="B125" s="13">
+        <v>37691</v>
+      </c>
+      <c r="C125" s="13">
+        <v>42653</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>51</v>
+      </c>
+      <c r="B126" s="13">
         <v>37712</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C126" s="13">
         <v>37908</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>18</v>
-      </c>
-      <c r="B48" s="14">
-        <v>39455</v>
-      </c>
-      <c r="C48" s="14">
-        <v>41380</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>18</v>
-      </c>
-      <c r="B49" s="14">
-        <v>36446</v>
-      </c>
-      <c r="C49" s="14">
-        <v>36782</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>19</v>
-      </c>
-      <c r="B50" s="14">
-        <v>39314</v>
-      </c>
-      <c r="C50" s="14">
-        <v>39673</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>20</v>
-      </c>
-      <c r="B51" s="14">
-        <v>38473</v>
-      </c>
-      <c r="C51" s="14">
-        <v>38960</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>21</v>
-      </c>
-      <c r="B52" s="14">
-        <v>40301</v>
-      </c>
-      <c r="C52" s="14">
-        <v>40764</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>21</v>
-      </c>
-      <c r="B53" s="14">
-        <v>38112</v>
-      </c>
-      <c r="C53" s="14">
-        <v>40457</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>22</v>
-      </c>
-      <c r="B54" s="14">
-        <v>38020</v>
-      </c>
-      <c r="C54" s="14">
-        <v>38664</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>22</v>
-      </c>
-      <c r="B55" s="14">
-        <v>38679</v>
-      </c>
-      <c r="C55" s="14">
-        <v>38911</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>22</v>
-      </c>
-      <c r="B56" s="14">
-        <v>38751</v>
-      </c>
-      <c r="C56" s="14">
-        <v>39638</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>23</v>
-      </c>
-      <c r="B57" s="14">
-        <v>40547</v>
-      </c>
-      <c r="C57" s="14">
-        <v>41387</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>23</v>
-      </c>
-      <c r="B58" s="14">
-        <v>41444</v>
-      </c>
-      <c r="C58" s="14">
-        <v>41607</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>23</v>
-      </c>
-      <c r="B59" s="14">
-        <v>40203</v>
-      </c>
-      <c r="C59" s="14">
-        <v>40541</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>24</v>
-      </c>
-      <c r="B60" s="14">
-        <v>39387</v>
-      </c>
-      <c r="C60" s="14">
-        <v>40668</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>24</v>
-      </c>
-      <c r="B61" s="14">
-        <v>40913</v>
-      </c>
-      <c r="C61" s="14">
-        <v>42397</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>24</v>
-      </c>
-      <c r="B62" s="14">
-        <v>42398</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>25</v>
-      </c>
-      <c r="B63" s="14">
-        <v>40544</v>
-      </c>
-      <c r="C63" s="14">
-        <v>41851</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>25</v>
-      </c>
-      <c r="B64" s="14">
-        <v>41852</v>
-      </c>
-      <c r="C64" s="14">
-        <v>42261</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>25</v>
-      </c>
-      <c r="B65" s="14">
-        <v>42262</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>26</v>
-      </c>
-      <c r="B66" s="14">
-        <v>40210</v>
-      </c>
-      <c r="C66" s="14">
-        <v>42004</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <v>26</v>
-      </c>
-      <c r="B67" s="14">
-        <v>42005</v>
-      </c>
-      <c r="C67" s="14">
-        <v>42643</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <v>26</v>
-      </c>
-      <c r="B68" s="14">
-        <v>42736</v>
-      </c>
-      <c r="C68" s="14">
-        <v>43159</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>27</v>
-      </c>
-      <c r="B69" s="14">
-        <v>42948</v>
-      </c>
-      <c r="C69" s="14">
-        <v>43281</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>27</v>
-      </c>
-      <c r="B70" s="14">
-        <v>43070</v>
-      </c>
-      <c r="C70" s="14">
-        <v>42948</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>27</v>
-      </c>
-      <c r="B71" s="14">
-        <v>42614</v>
-      </c>
-      <c r="C71" s="14">
-        <v>42704</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>28</v>
-      </c>
-      <c r="B72" s="14">
-        <v>42528</v>
-      </c>
-      <c r="C72" s="14">
-        <v>42737</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>28</v>
-      </c>
-      <c r="B73" s="14">
-        <v>37653</v>
-      </c>
-      <c r="C73" s="14">
-        <v>37894</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>29</v>
-      </c>
-      <c r="B74" s="14">
-        <v>37266</v>
-      </c>
-      <c r="C74" s="14">
-        <v>37908</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>30</v>
-      </c>
-      <c r="B75" s="14">
-        <v>37653</v>
-      </c>
-      <c r="C75" s="14">
-        <v>37894</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>30</v>
-      </c>
-      <c r="B76" s="14">
-        <v>37895</v>
-      </c>
-      <c r="C76" s="14">
-        <v>38748</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>31</v>
-      </c>
-      <c r="B77" s="14">
-        <v>42887</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43516</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>31</v>
-      </c>
-      <c r="B78" s="14">
-        <v>42248</v>
-      </c>
-      <c r="C78" s="14">
-        <v>42886</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>31</v>
-      </c>
-      <c r="B79" s="14">
-        <v>42125</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>32</v>
-      </c>
-      <c r="B80" s="14">
-        <v>37653</v>
-      </c>
-      <c r="C80" s="14">
-        <v>37894</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>33</v>
-      </c>
-      <c r="B81" s="14">
-        <v>36592</v>
-      </c>
-      <c r="C81" s="14">
-        <v>38763</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>34</v>
-      </c>
-      <c r="B82" s="14">
-        <v>36495</v>
-      </c>
-      <c r="C82" s="14">
-        <v>42689</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>34</v>
-      </c>
-      <c r="B83" s="14">
-        <v>39083</v>
-      </c>
-      <c r="C83" s="14">
-        <v>41274</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>34</v>
-      </c>
-      <c r="B84" s="14">
-        <v>37653</v>
-      </c>
-      <c r="C84" s="14">
-        <v>39082</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>35</v>
-      </c>
-      <c r="B85" s="14">
-        <v>40576</v>
-      </c>
-      <c r="C85" s="14">
-        <v>41162</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>35</v>
-      </c>
-      <c r="B86" s="14">
-        <v>40549</v>
-      </c>
-      <c r="C86" s="14">
-        <v>40898</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>36</v>
-      </c>
-      <c r="B87" s="14">
-        <v>38749</v>
-      </c>
-      <c r="C87" s="14">
-        <v>38807</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>36</v>
-      </c>
-      <c r="B88" s="14">
-        <v>38777</v>
-      </c>
-      <c r="C88" s="14">
-        <v>38821</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>37</v>
-      </c>
-      <c r="B89" s="14">
-        <v>40344</v>
-      </c>
-      <c r="C89" s="14">
-        <v>40771</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>37</v>
-      </c>
-      <c r="B90" s="14">
-        <v>38049</v>
-      </c>
-      <c r="C90" s="14">
-        <v>38552</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>37</v>
-      </c>
-      <c r="B91" s="14">
-        <v>37292</v>
-      </c>
-      <c r="C91" s="14">
-        <v>37998</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>38</v>
-      </c>
-      <c r="B92" s="14">
-        <v>41487</v>
-      </c>
-      <c r="C92" s="14">
-        <v>41805</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>38</v>
-      </c>
-      <c r="B93" s="14">
-        <v>41883</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>38</v>
-      </c>
-      <c r="B94" s="14">
-        <v>41806</v>
-      </c>
-      <c r="C94" s="14">
-        <v>42643</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>39</v>
-      </c>
-      <c r="B95" s="14">
-        <v>33666</v>
-      </c>
-      <c r="C95" s="14">
-        <v>34164</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>39</v>
-      </c>
-      <c r="B96" s="14">
-        <v>33666</v>
-      </c>
-      <c r="C96" s="14">
-        <v>34164</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>39</v>
-      </c>
-      <c r="B97" s="14">
-        <v>35479</v>
-      </c>
-      <c r="C97" s="14">
-        <v>36936</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>40</v>
-      </c>
-      <c r="B98" s="14">
-        <v>36586</v>
-      </c>
-      <c r="C98" s="14">
-        <v>37139</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>40</v>
-      </c>
-      <c r="B99" s="14">
-        <v>37719</v>
-      </c>
-      <c r="C99" s="14">
+      <c r="D126" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>51</v>
+      </c>
+      <c r="B127" s="13">
+        <v>37370</v>
+      </c>
+      <c r="C127" s="13">
+        <v>38855</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>51</v>
+      </c>
+      <c r="B128" s="13">
+        <v>38720</v>
+      </c>
+      <c r="C128" s="13">
+        <v>39009</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>52</v>
+      </c>
+      <c r="B129" s="13">
         <v>38078</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>41</v>
-      </c>
-      <c r="B100" s="14">
-        <v>40179</v>
-      </c>
-      <c r="C100" s="14">
-        <v>40909</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>41</v>
-      </c>
-      <c r="B101" s="14">
-        <v>42374</v>
-      </c>
-      <c r="C101" s="14">
-        <v>42753</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
-        <v>41</v>
-      </c>
-      <c r="B102" s="14">
-        <v>38020</v>
-      </c>
-      <c r="C102" s="14">
-        <v>38664</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
-        <v>42</v>
-      </c>
-      <c r="B103" s="14">
-        <v>41730</v>
-      </c>
-      <c r="C103" s="14">
-        <v>44439</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>42</v>
-      </c>
-      <c r="B104" s="14">
-        <v>44440</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>43</v>
-      </c>
-      <c r="B105" s="14">
-        <v>37803</v>
-      </c>
-      <c r="C105" s="14">
-        <v>37940</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
-        <v>43</v>
-      </c>
-      <c r="B106" s="14">
-        <v>37941</v>
-      </c>
-      <c r="C106" s="14">
-        <v>38352</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
-        <v>43</v>
-      </c>
-      <c r="B107" s="14">
-        <v>38353</v>
-      </c>
-      <c r="C107" s="14">
-        <v>39202</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
-        <v>44</v>
-      </c>
-      <c r="B108" s="14">
-        <v>36161</v>
-      </c>
-      <c r="C108" s="14">
-        <v>40056</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
-        <v>44</v>
-      </c>
-      <c r="B109" s="14">
-        <v>35370</v>
-      </c>
-      <c r="C109" s="14">
-        <v>36160</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="E109" s="13" t="s">
+      <c r="C129" s="13">
+        <v>39574</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
-        <v>44</v>
-      </c>
-      <c r="B110" s="14">
-        <v>34394</v>
-      </c>
-      <c r="C110" s="14">
-        <v>35246</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
-        <v>45</v>
-      </c>
-      <c r="B111" s="14">
-        <v>41867</v>
-      </c>
-      <c r="C111" s="14">
-        <v>42429</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
-        <v>45</v>
-      </c>
-      <c r="B112" s="14">
-        <v>42430</v>
-      </c>
-      <c r="C112" s="14">
-        <v>42521</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
-        <v>45</v>
-      </c>
-      <c r="B113" s="14">
-        <v>42522</v>
-      </c>
-      <c r="C113" s="14">
-        <v>43159</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
-        <v>46</v>
-      </c>
-      <c r="B114" s="14">
-        <v>43344</v>
-      </c>
-      <c r="C114" s="14">
-        <v>43435</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15">
-        <v>46</v>
-      </c>
-      <c r="B115" s="14">
-        <v>43710</v>
-      </c>
-      <c r="C115" s="14">
-        <v>44074</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
-        <v>46</v>
-      </c>
-      <c r="B116" s="14">
-        <v>44110</v>
-      </c>
-      <c r="C116" s="14">
-        <v>44270</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
-        <v>47</v>
-      </c>
-      <c r="B117" s="14">
-        <v>37628</v>
-      </c>
-      <c r="C117" s="14">
-        <v>38903</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
-        <v>47</v>
-      </c>
-      <c r="B118" s="14">
-        <v>37656</v>
-      </c>
-      <c r="C118" s="14">
-        <v>39946</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
-        <v>47</v>
-      </c>
-      <c r="B119" s="14">
-        <v>37691</v>
-      </c>
-      <c r="C119" s="14">
-        <v>42653</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
-        <v>48</v>
-      </c>
-      <c r="B120" s="14">
-        <v>37994</v>
-      </c>
-      <c r="C120" s="14">
-        <v>38427</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
-        <v>48</v>
-      </c>
-      <c r="B121" s="14">
-        <v>37384</v>
-      </c>
-      <c r="C121" s="14">
-        <v>38006</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
-        <v>49</v>
-      </c>
-      <c r="B122" s="14">
-        <v>38811</v>
-      </c>
-      <c r="C122" s="14">
-        <v>41528</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
-        <v>49</v>
-      </c>
-      <c r="B123" s="14">
-        <v>37776</v>
-      </c>
-      <c r="C123" s="14">
-        <v>38965</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
-        <v>50</v>
-      </c>
-      <c r="B124" s="14">
-        <v>33772</v>
-      </c>
-      <c r="C124" s="14">
-        <v>34171</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
-        <v>50</v>
-      </c>
-      <c r="B125" s="14">
-        <v>34521</v>
-      </c>
-      <c r="C125" s="14">
-        <v>34702</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
-        <v>50</v>
-      </c>
-      <c r="B126" s="14">
-        <v>34898</v>
-      </c>
-      <c r="C126" s="14">
-        <v>36605</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
-        <v>51</v>
-      </c>
-      <c r="B127" s="14">
-        <v>37712</v>
-      </c>
-      <c r="C127" s="14">
-        <v>37908</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>51</v>
-      </c>
-      <c r="B128" s="14">
-        <v>37370</v>
-      </c>
-      <c r="C128" s="14">
-        <v>38855</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
-        <v>51</v>
-      </c>
-      <c r="B129" s="14">
-        <v>38720</v>
-      </c>
-      <c r="C129" s="14">
-        <v>39009</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
-        <v>52</v>
-      </c>
-      <c r="B130" s="14">
-        <v>38078</v>
-      </c>
-      <c r="C130" s="14">
-        <v>39574</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
         <v>53</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B130" s="13">
         <v>39543</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C130" s="13">
         <v>40035</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D130" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="E131" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>374</v>
+      <c r="E130" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f17UPPachuca.xlsx
+++ b/xlsx/a69_f17UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="603">
   <si>
     <t>44247</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Química</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?901</t>
-  </si>
-  <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Ciencias en Ingeniería Mecatrónica</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?903</t>
-  </si>
-  <si>
     <t>Secretario Administativo</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>Administración</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?961</t>
-  </si>
-  <si>
     <t>Director de la División de Estudios Profesionales</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>Ciencias Computacionales</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?917</t>
-  </si>
-  <si>
     <t>Director de Área</t>
   </si>
   <si>
@@ -361,18 +349,12 @@
     <t>Gestión Pública</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?5578</t>
-  </si>
-  <si>
     <t>Directora de Logística</t>
   </si>
   <si>
     <t>Por designar</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?962</t>
-  </si>
-  <si>
     <t>Director de Comunicación Social e Imagen Institucional</t>
   </si>
   <si>
@@ -403,9 +385,6 @@
     <t>Electrónica</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?947</t>
-  </si>
-  <si>
     <t>Director de Planeación</t>
   </si>
   <si>
@@ -421,9 +400,6 @@
     <t>Ingeniería Industrial</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?984</t>
-  </si>
-  <si>
     <t>Director de Programa Educativo</t>
   </si>
   <si>
@@ -442,9 +418,6 @@
     <t>Tecnologías de la Información y Comunicaciones</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?921</t>
-  </si>
-  <si>
     <t>Director de Programa Educativo Ingeniería Financiera</t>
   </si>
   <si>
@@ -457,9 +430,6 @@
     <t>Planeación Estratégica y Dirección de Tecnología</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?931</t>
-  </si>
-  <si>
     <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
   </si>
   <si>
@@ -472,9 +442,6 @@
     <t>Mecatrónica</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?934</t>
-  </si>
-  <si>
     <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
   </si>
   <si>
@@ -490,9 +457,6 @@
     <t>Biotecnología</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?935</t>
-  </si>
-  <si>
     <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
   </si>
   <si>
@@ -511,9 +475,6 @@
     <t>Ingeniería</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?936</t>
-  </si>
-  <si>
     <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
   </si>
   <si>
@@ -529,9 +490,6 @@
     <t>Administración Educativa</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?937</t>
-  </si>
-  <si>
     <t>Director de Programa Educativo Ingeniería en Biomédica</t>
   </si>
   <si>
@@ -568,33 +526,15 @@
     <t>Gestión Administrativa</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?954</t>
-  </si>
-  <si>
     <t>Subdirección de Comunicación Social</t>
   </si>
   <si>
     <t>Subdirector de Comunicación Social</t>
   </si>
   <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
     <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
   <si>
-    <t>Diseño Gráfico</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?968</t>
-  </si>
-  <si>
     <t>Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
@@ -613,9 +553,6 @@
     <t>Ciencias Politícas</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?980</t>
-  </si>
-  <si>
     <t>Coordinación del Posgrado en Didáctica y Ciencias</t>
   </si>
   <si>
@@ -700,9 +637,6 @@
     <t>Contaduría</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?988</t>
-  </si>
-  <si>
     <t>Subdirección de Calidad</t>
   </si>
   <si>
@@ -724,27 +658,9 @@
     <t>Administración de Instituciones Educativas</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?985</t>
-  </si>
-  <si>
     <t>Subdirección de Planeación y Presupuesto</t>
   </si>
   <si>
-    <t>Subdirector de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?971</t>
-  </si>
-  <si>
     <t>Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
@@ -778,9 +694,6 @@
     <t>Psicopedagogía</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?987</t>
-  </si>
-  <si>
     <t>Departamento de Vinculación y Extensión</t>
   </si>
   <si>
@@ -802,9 +715,6 @@
     <t>Ciencias de la Comunicación</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?5579</t>
-  </si>
-  <si>
     <t>Departamento Jurídico</t>
   </si>
   <si>
@@ -841,9 +751,6 @@
     <t>Derecho</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?978</t>
-  </si>
-  <si>
     <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
   </si>
   <si>
@@ -859,9 +766,6 @@
     <t>Sistemas Computacionales</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?944</t>
-  </si>
-  <si>
     <t>Departamento de Idiomas y Lenguas</t>
   </si>
   <si>
@@ -874,9 +778,6 @@
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?940</t>
-  </si>
-  <si>
     <t>Departamento de Desarrollo Académico</t>
   </si>
   <si>
@@ -901,9 +802,6 @@
     <t>Periodismo y Comunicación Colectiva</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?943</t>
-  </si>
-  <si>
     <t>Departamento de Actividades Deportivas y Recreativas</t>
   </si>
   <si>
@@ -919,9 +817,6 @@
     <t>Ingeniería Química</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?983</t>
-  </si>
-  <si>
     <t>Departamento de Internacionalización</t>
   </si>
   <si>
@@ -970,9 +865,6 @@
     <t>Ingeniería en Electrónica y Comunicaciones</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1MjH1MlsiI3KipKEhXHCsEnsOniSoysba/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Departamento de Contabilidad</t>
   </si>
   <si>
@@ -985,9 +877,6 @@
     <t>Olvera</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?973</t>
-  </si>
-  <si>
     <t>Departamento de Recursos Humanos</t>
   </si>
   <si>
@@ -1006,9 +895,6 @@
     <t>Ingeniería Financiera</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/16vOiNcILlnmSh4qK-NhDoh9sczpfTIUB/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Departamento de Atención y Promoción de la Salud</t>
   </si>
   <si>
@@ -1030,9 +916,6 @@
     <t>Castillo</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?970</t>
-  </si>
-  <si>
     <t>Departamento de Administración del Polideportivo</t>
   </si>
   <si>
@@ -1051,9 +934,6 @@
     <t>Técnico en Plásticos</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?5581</t>
-  </si>
-  <si>
     <t>Departamento de Adquisición de Bienes y Servicios</t>
   </si>
   <si>
@@ -1066,9 +946,6 @@
     <t>Calva</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?974</t>
-  </si>
-  <si>
     <t>Departamento de Infraestructura</t>
   </si>
   <si>
@@ -1084,9 +961,6 @@
     <t>Arquitectura</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?976</t>
-  </si>
-  <si>
     <t>Departamento de Tecnologías de Información y Comunicaciones</t>
   </si>
   <si>
@@ -1102,9 +976,6 @@
     <t>Tecnologías de Información</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19fAkSTkz7SqtomX_40g-ofrwUEQlKB1k/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Departamento de Servicios Escolares</t>
   </si>
   <si>
@@ -1120,9 +991,6 @@
     <t>Educación</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?991</t>
-  </si>
-  <si>
     <t>Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
@@ -1141,9 +1009,6 @@
     <t>Docencia</t>
   </si>
   <si>
-    <t>http://servicios.hidalgo.gob.mx/transparencia15/aservidorpublicocv.aspx?992</t>
-  </si>
-  <si>
     <t>Universidad Autónoma del Estado de Hidalgo</t>
   </si>
   <si>
@@ -1168,12 +1033,6 @@
     <t>Liceo Europeo de Cuernavaca</t>
   </si>
   <si>
-    <t>SEP de Hidalgo</t>
-  </si>
-  <si>
-    <t>Jefatura de Almacen Central</t>
-  </si>
-  <si>
     <t>BURSATEC S.A. de C.V.</t>
   </si>
   <si>
@@ -1192,30 +1051,18 @@
     <t>Consultoría</t>
   </si>
   <si>
-    <t>Dirección General de Seguridad Publica y Transito del estado</t>
-  </si>
-  <si>
     <t>Contralor interno</t>
   </si>
   <si>
-    <t>Contraloria interna</t>
-  </si>
-  <si>
     <t>Diconsa Hidalgo</t>
   </si>
   <si>
     <t>Jefe de Oficina</t>
   </si>
   <si>
-    <t>Almacenes Rurales</t>
-  </si>
-  <si>
     <t>Municipio de Ixmiquilpan</t>
   </si>
   <si>
-    <t>Tesoreria</t>
-  </si>
-  <si>
     <t>Gobierno del Estado de Hidalgo</t>
   </si>
   <si>
@@ -1231,18 +1078,6 @@
     <t>Abogado Procurador</t>
   </si>
   <si>
-    <t>Universidad Tecnológica de la Zona Metropolitana del Valle de México</t>
-  </si>
-  <si>
-    <t>Directora de Planeación y Evaluación</t>
-  </si>
-  <si>
-    <t>Secretaria de Finanzas Públicas del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>Encargada de Departamento</t>
-  </si>
-  <si>
     <t>Finanzas</t>
   </si>
   <si>
@@ -1435,21 +1270,6 @@
     <t>Comunicación Social</t>
   </si>
   <si>
-    <t>Instituto Tecnológico Latinoamericano</t>
-  </si>
-  <si>
-    <t>Encargado del Departamento de Creatividad y Diseño</t>
-  </si>
-  <si>
-    <t>Comunicación social</t>
-  </si>
-  <si>
-    <t>Instituto Mexicano del Petróleo</t>
-  </si>
-  <si>
-    <t>Diseño e Impresión de Portadas</t>
-  </si>
-  <si>
     <t>H. Congreso del Estado de Hidalgo</t>
   </si>
   <si>
@@ -1516,30 +1336,9 @@
     <t xml:space="preserve">Contabilidad </t>
   </si>
   <si>
-    <t>Despacho Omega</t>
-  </si>
-  <si>
-    <t>Coordinador de Auditores</t>
-  </si>
-  <si>
     <t>Auditoría</t>
   </si>
   <si>
-    <t>IHEMSYS (Instituto Hidalguense de Educación Media Superior y Superior)</t>
-  </si>
-  <si>
-    <t>Encargada del Depto de Programación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Presupuestos</t>
-  </si>
-  <si>
-    <t>COBAEH</t>
-  </si>
-  <si>
-    <t>Responsable de Laboratorio</t>
-  </si>
-  <si>
     <t>Unidad de Promoción y Desarrollo Estudiantil Regional</t>
   </si>
   <si>
@@ -1816,91 +1615,223 @@
     <t>Jardín de Niños Berta Von Glümer</t>
   </si>
   <si>
-    <t>Cuenta con un empleo anterior al actual</t>
-  </si>
-  <si>
-    <t>Cuenta con dos empleos anteriores al actual</t>
-  </si>
-  <si>
     <t>Farmacia Guadalajara</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Herrera%20Rivas%20Eduardo%20Rub%C3%A9n.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Ortiz%20Hern%C3%A1ndez%20Iztmitl.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Garc%C3%ADa%20Escorza%20Brenda%20Berenice.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Olivares%20Escorza%20Mayte.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Jorge%20%C3%81lvarez%20Cervantes.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Austria%20Cornejo%20Arturo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Pascual%20Francisco%20Juan%20Benito.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Dossetti%20Vargas%20Jos%C3%A9%20Ra%C3%BAl.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Eguiluz%20Ru%C3%ADz%20Brenda.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Esquivel%20Mart%C3%ADnez%20Gerardo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Hern%C3%A1ndez%20Licona%20Monserrat%20%281%29.pdf</t>
-  </si>
-  <si>
     <t>Titular del Órgano Interno de Control</t>
   </si>
   <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Cortés</t>
-  </si>
-  <si>
-    <t>Montaño</t>
-  </si>
-  <si>
-    <t>Educación Media Superior</t>
-  </si>
-  <si>
-    <t>Partido Revolucionario Institucional</t>
-  </si>
-  <si>
-    <t>Delegada Política</t>
-  </si>
-  <si>
-    <t>Politología</t>
-  </si>
-  <si>
-    <t>Presidenta de Comité Municipal</t>
-  </si>
-  <si>
-    <t>Instituto Municipal de Prevención de Adicciones</t>
-  </si>
-  <si>
-    <t>Directora General</t>
-  </si>
-  <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Cortes%20Monta%C3%B1o%20Cristina%20%281%29.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Baena%20S%C3%A1nchez%20Mary%20Carmen.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f17/Vel%C3%A1zquez%20Cruz%20Luis%20Alberto.pdf</t>
+    <t>Encargado de la Subdirección de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Sergio Armando</t>
+  </si>
+  <si>
+    <t>Cisneros</t>
+  </si>
+  <si>
+    <t>KOMATSU Mexicana S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>Superintendente de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>Gerente de Adquisiciones y Materiales</t>
+  </si>
+  <si>
+    <t>Asesor/Promotor de PYMES</t>
+  </si>
+  <si>
+    <t>Adquisiciones</t>
+  </si>
+  <si>
+    <t>Negocios</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Jefe de oficina</t>
+  </si>
+  <si>
+    <t>Dirección General de Seguridad Pública y Tránsito del Estado</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Construcciones Alme S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>Encargada de Departamento de Programación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Instituto Hidalguense de Educación Media Superior y Superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefe de Departamento Caja y Bancos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefe de Oficina C de Proyectos Especiales </t>
+  </si>
+  <si>
+    <t>Jefe de oficina C de Presupuesto</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Cisneros%20Mart%C3%ADnez%20Sergio%20Armando.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Flores%20Glez%20Marco%20Antonio.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Martinez%20Mireles%20Josue%20Roman.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Fernandez%20Salas%20Jorge%20Alfredo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Garc%C3%ADa%20M%C3%A1rquez%20Marco%20Antonio.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/aservidorpublicocv.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Jimenez%20Barrios%20Salvador.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Flores%20P%C3%A9rez%20Mar%C3%ADa%20Guadalupe.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Herrera%20Rivas%20Eduardo%20Rub%C3%A9n.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Trejo%20Macotela%20Francisco%20Rafael.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Montes%20Monroy%20Juan%20Manuel.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Gonz%C3%A1lez%20Peralta%20Mayra%20Fabiola.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Torres%20Gonz%C3%A1lez%20Miguel%20%C3%81ngel.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Aguilera%20Jim%C3%A9nez%20Miguel%20%C3%81ngel.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Gomez%20Valadez%20Alejandrina.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Hern%C3%A1ndez%20Morales%20Alberto.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Ch%C3%ADo%20Austria%20Rosa%20Maria.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Ortiz%20Hern%C3%A1ndez%20Iztmitl.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Garc%C3%ADa%20Escorza%20Brenda%20Berenice.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Vera%20Jim%C3%A9nez%20Marco%20Antonio.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Olivares%20Escorza%20Mayte.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Jorge%20%C3%81lvarez%20Cervantes.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/17/Austria%20Cornejo%20Arturo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Pascual%20Francisco%20Juan%20Benito.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Mejia%20Cruz%20Agustin.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Rivera%20Madrigal%20Ma%20del%20Carmen.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Dossetti%20Vargas%20Jos%C3%A9%20Ra%C3%BAl.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Briones%20Hern%C3%A1ndez%20Lucia.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/17/Arevalo%20Baena%20Lourdes%20Guadalupe.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Eguiluz%20Ru%C3%ADz%20Brenda.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Godinez%20Cruz%20Jonathan%20Gonzalo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Salas%20Lopez%20Julio%20Cesar.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Hernandez%20Rodriguez%20Felix%20Alberto.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Baena%20S%C3%A1nchez%20Mary%20Carmen.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Valdivieso%20Rodriguez%20Miguel%20Angel.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Cortes%20Martinez%20Nancy%20Judith.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Esquivel%20Mart%C3%ADnez%20Gerardo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Vel%C3%A1zquez%20Cruz%20Luis%20Alberto.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Ju%C3%A1rico%20Guaso%20Jes%C3%BAs%20Eduardo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Rodr%C3%ADguez%20Olvera%20R%C3%B3mulo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Elizabeth%20Reyes%20Tinajar.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Hern%C3%A1ndez%20Licona%20Monserrat.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Hern%C3%A1ndez%20Castillo%20Juan%20Manuel.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/17/Moreno%20Alfaro%20Jos%C3%A9%20Enoch.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Moreno%20Calva%20Donaciano.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Dorantes%20Castillo%20C%C3%A9sar%20Hugo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/David%20Luna%20Cruz.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/S%C3%A1nchez%20D%C3%ADaz%20Margarita.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/17/Proa%20de%20la%20Fuente%20Guadalupe.pdf</t>
+  </si>
+  <si>
+    <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
+  </si>
+  <si>
+    <t>Pendiente por designar</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +1934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2036,13 +1967,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2334,7 +2274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2344,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L41" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2308,7 @@
     <col min="16" max="16" width="73.140625" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
+    <col min="19" max="19" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -2377,40 +2317,40 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2531,27 +2471,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2612,15 +2552,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>77</v>
@@ -2650,47 +2590,47 @@
         <v>1</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>83</v>
+        <v>553</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R8" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S8" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2022</v>
       </c>
       <c r="B9" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>81</v>
@@ -2699,55 +2639,53 @@
         <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="7">
         <v>2</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>90</v>
+        <v>554</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R9" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44753</v>
+      </c>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2022</v>
       </c>
       <c r="B10" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>81</v>
@@ -2756,53 +2694,53 @@
         <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7">
         <v>3</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>96</v>
+        <v>555</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R10" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S10" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2022</v>
       </c>
       <c r="B11" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>81</v>
@@ -2811,86 +2749,66 @@
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7">
         <v>4</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>101</v>
+        <v>556</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R11" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>44753</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>2022</v>
       </c>
-      <c r="B12" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44651</v>
+      <c r="B12" s="17">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44742</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" s="7">
-        <v>5</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>44659</v>
-      </c>
-      <c r="R12" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>622</v>
+        <v>531</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>44753</v>
+      </c>
+      <c r="R12" s="17">
+        <v>44753</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -2898,25 +2816,25 @@
         <v>2022</v>
       </c>
       <c r="B13" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>81</v>
@@ -2925,53 +2843,53 @@
         <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7">
         <v>6</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>115</v>
+        <v>557</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R13" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44753</v>
+      </c>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2022</v>
       </c>
       <c r="B14" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>81</v>
@@ -2980,108 +2898,108 @@
         <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7">
         <v>7</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R14" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44753</v>
+      </c>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2022</v>
       </c>
       <c r="B15" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="L15" s="7">
         <v>8</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>115</v>
+        <v>559</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R15" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S15" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2022</v>
       </c>
       <c r="B16" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>81</v>
@@ -3090,53 +3008,53 @@
         <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7">
         <v>9</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R16" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S16" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2022</v>
       </c>
       <c r="B17" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>81</v>
@@ -3145,55 +3063,53 @@
         <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7">
         <v>10</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>126</v>
+        <v>561</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R17" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44753</v>
+      </c>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2022</v>
       </c>
       <c r="B18" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>81</v>
@@ -3202,554 +3118,548 @@
         <v>59</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7">
         <v>11</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>132</v>
+        <v>562</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R18" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S18" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2022</v>
       </c>
       <c r="B19" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7">
         <v>12</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>139</v>
+        <v>563</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R19" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2022</v>
       </c>
       <c r="B20" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7">
         <v>13</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>144</v>
+        <v>564</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R20" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S20" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2022</v>
       </c>
       <c r="B21" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7">
         <v>14</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>149</v>
+        <v>565</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R21" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S21" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2022</v>
       </c>
       <c r="B22" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7">
         <v>15</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>155</v>
+        <v>566</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R22" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S22" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2022</v>
       </c>
       <c r="B23" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7">
         <v>16</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>139</v>
+        <v>563</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R23" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2022</v>
       </c>
       <c r="B24" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7">
         <v>17</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>162</v>
+        <v>567</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R24" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S24" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2022</v>
       </c>
       <c r="B25" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7">
         <v>18</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R25" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S25" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2022</v>
       </c>
       <c r="B26" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7">
         <v>19</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R26" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2022</v>
       </c>
       <c r="B27" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L27" s="7">
         <v>20</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R27" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S27" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
       <c r="B28" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>81</v>
@@ -3758,556 +3668,532 @@
         <v>60</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7">
         <v>21</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>181</v>
+        <v>571</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R28" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2022</v>
       </c>
       <c r="B29" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="6" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7">
         <v>22</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="M29" s="8"/>
       <c r="N29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R29" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S29" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2022</v>
       </c>
       <c r="B30" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7">
         <v>23</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="M30" s="8"/>
       <c r="N30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R30" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S30" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2022</v>
       </c>
       <c r="B31" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7">
         <v>24</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R31" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S31" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2022</v>
       </c>
       <c r="B32" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7">
         <v>25</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R32" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S32" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2022</v>
       </c>
       <c r="B33" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L33" s="7">
         <v>26</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R33" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S33" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
       <c r="B34" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="L34" s="7">
         <v>27</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R34" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S34" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2022</v>
       </c>
       <c r="B35" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7">
         <v>28</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>225</v>
+        <v>576</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q35" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R35" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2022</v>
       </c>
       <c r="B36" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7">
         <v>29</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>233</v>
+        <v>577</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R36" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2022</v>
       </c>
       <c r="B37" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C37" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>235</v>
+        <v>532</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>533</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>534</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7">
         <v>30</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>239</v>
+      <c r="M37" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R37" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2022</v>
       </c>
       <c r="B38" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C38" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>81</v>
@@ -4316,53 +4202,53 @@
         <v>59</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L38" s="7">
         <v>31</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R38" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S38" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2022</v>
       </c>
       <c r="B39" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C39" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>81</v>
@@ -4371,1203 +4257,1183 @@
         <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="L39" s="7">
         <v>32</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>251</v>
+        <v>579</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R39" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2022</v>
       </c>
       <c r="B40" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C40" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7">
         <v>33</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>259</v>
+        <v>580</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R40" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2022</v>
       </c>
       <c r="B41" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C41" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L41" s="7">
         <v>34</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R41" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2022</v>
       </c>
       <c r="B42" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C42" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="L42" s="7">
         <v>35</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>272</v>
+        <v>582</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R42" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2022</v>
       </c>
       <c r="B43" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C43" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="L43" s="7">
         <v>36</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>278</v>
+        <v>583</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R43" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S43" s="12"/>
     </row>
     <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2022</v>
       </c>
       <c r="B44" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C44" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L44" s="7">
         <v>37</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>283</v>
+        <v>584</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R44" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S44" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S44" s="12"/>
     </row>
     <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2022</v>
       </c>
       <c r="B45" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C45" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L45" s="7">
         <v>38</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R45" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S45" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S45" s="12"/>
     </row>
     <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2022</v>
       </c>
       <c r="B46" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C46" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L46" s="7">
         <v>39</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>292</v>
+        <v>586</v>
       </c>
       <c r="N46" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R46" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S46" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S46" s="12"/>
     </row>
     <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2022</v>
       </c>
       <c r="B47" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C47" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L47" s="7">
         <v>40</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>298</v>
+        <v>587</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q47" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R47" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S47" s="14"/>
     </row>
     <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2022</v>
       </c>
       <c r="B48" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C48" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="L48" s="7">
         <v>41</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R48" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S48" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S48" s="12"/>
     </row>
     <row r="49" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2022</v>
       </c>
       <c r="B49" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C49" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>59</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L49" s="7">
         <v>42</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q49" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R49" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S49" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2022</v>
       </c>
       <c r="B50" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C50" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="L50" s="7">
         <v>43</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>315</v>
+        <v>590</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R50" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S50" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2022</v>
       </c>
       <c r="B51" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C51" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L51" s="7">
         <v>44</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>320</v>
+        <v>591</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R51" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S51" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S51" s="12"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2022</v>
       </c>
       <c r="B52" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C52" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L52" s="7">
         <v>45</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>327</v>
+        <v>592</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R52" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S52" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S52" s="12"/>
     </row>
     <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2022</v>
       </c>
       <c r="B53" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C53" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L53" s="7">
         <v>46</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R53" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S53" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S53" s="12"/>
     </row>
     <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2022</v>
       </c>
       <c r="B54" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C54" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L54" s="7">
         <v>47</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>335</v>
+        <v>594</v>
       </c>
       <c r="N54" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q54" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R54" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S54" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S54" s="12"/>
     </row>
     <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2022</v>
       </c>
       <c r="B55" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C55" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="L55" s="7">
         <v>48</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>342</v>
+        <v>595</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q55" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R55" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S55" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S55" s="12"/>
     </row>
     <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2022</v>
       </c>
       <c r="B56" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C56" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L56" s="7">
         <v>49</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>347</v>
+        <v>596</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q56" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R56" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>598</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S56" s="12"/>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2022</v>
       </c>
       <c r="B57" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C57" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="L57" s="7">
         <v>50</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>353</v>
+        <v>597</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q57" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R57" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S57" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S57" s="12"/>
     </row>
     <row r="58" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2022</v>
       </c>
       <c r="B58" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="L58" s="7">
         <v>51</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>359</v>
+        <v>598</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q58" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R58" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S58" s="13"/>
+        <v>44753</v>
+      </c>
+      <c r="S58" s="12"/>
     </row>
     <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2022</v>
       </c>
       <c r="B59" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="L59" s="7">
         <v>52</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>365</v>
+        <v>599</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q59" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R59" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S59" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S59" s="12"/>
     </row>
     <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2022</v>
       </c>
       <c r="B60" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="L60" s="7">
         <v>53</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>372</v>
+        <v>600</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="R60" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S60" s="13" t="s">
-        <v>597</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="S60" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5588,60 +5454,59 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M29" r:id="rId1"/>
-    <hyperlink ref="M8" r:id="rId2"/>
-    <hyperlink ref="M9" r:id="rId3"/>
-    <hyperlink ref="M10" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="M15" r:id="rId6"/>
-    <hyperlink ref="M11" r:id="rId7"/>
-    <hyperlink ref="M18" r:id="rId8"/>
+    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="M9" r:id="rId2"/>
+    <hyperlink ref="M10" r:id="rId3"/>
+    <hyperlink ref="M14" r:id="rId4"/>
+    <hyperlink ref="M11" r:id="rId5"/>
+    <hyperlink ref="M16" r:id="rId6"/>
+    <hyperlink ref="M13" r:id="rId7"/>
+    <hyperlink ref="M15" r:id="rId8"/>
     <hyperlink ref="M17" r:id="rId9"/>
-    <hyperlink ref="M19" r:id="rId10"/>
-    <hyperlink ref="M21" r:id="rId11"/>
-    <hyperlink ref="M30" r:id="rId12"/>
-    <hyperlink ref="M20" r:id="rId13"/>
+    <hyperlink ref="M18" r:id="rId10"/>
+    <hyperlink ref="M19" r:id="rId11"/>
+    <hyperlink ref="M20" r:id="rId12"/>
+    <hyperlink ref="M21" r:id="rId13"/>
     <hyperlink ref="M22" r:id="rId14"/>
-    <hyperlink ref="M25" r:id="rId15"/>
+    <hyperlink ref="M23" r:id="rId15"/>
     <hyperlink ref="M24" r:id="rId16"/>
-    <hyperlink ref="M28" r:id="rId17"/>
-    <hyperlink ref="M35" r:id="rId18"/>
-    <hyperlink ref="M36" r:id="rId19"/>
-    <hyperlink ref="M37" r:id="rId20"/>
-    <hyperlink ref="M39" r:id="rId21"/>
-    <hyperlink ref="M40" r:id="rId22"/>
-    <hyperlink ref="M42" r:id="rId23"/>
-    <hyperlink ref="M43" r:id="rId24"/>
-    <hyperlink ref="M44" r:id="rId25"/>
-    <hyperlink ref="M46" r:id="rId26"/>
-    <hyperlink ref="M47" r:id="rId27"/>
-    <hyperlink ref="M51" r:id="rId28"/>
-    <hyperlink ref="M55" r:id="rId29"/>
-    <hyperlink ref="M56" r:id="rId30"/>
-    <hyperlink ref="M59" r:id="rId31"/>
-    <hyperlink ref="M60" r:id="rId32"/>
-    <hyperlink ref="M54" r:id="rId33"/>
-    <hyperlink ref="M52" r:id="rId34"/>
-    <hyperlink ref="M58" r:id="rId35"/>
-    <hyperlink ref="M23" r:id="rId36"/>
-    <hyperlink ref="M50" r:id="rId37"/>
-    <hyperlink ref="M57" r:id="rId38"/>
-    <hyperlink ref="M26" r:id="rId39"/>
-    <hyperlink ref="M16" r:id="rId40"/>
-    <hyperlink ref="M31" r:id="rId41"/>
-    <hyperlink ref="M33" r:id="rId42"/>
-    <hyperlink ref="M34" r:id="rId43"/>
-    <hyperlink ref="M38" r:id="rId44"/>
-    <hyperlink ref="M41" r:id="rId45"/>
-    <hyperlink ref="M13" r:id="rId46"/>
-    <hyperlink ref="M48" r:id="rId47"/>
-    <hyperlink ref="M53" r:id="rId48"/>
-    <hyperlink ref="M12" r:id="rId49"/>
-    <hyperlink ref="M45" r:id="rId50"/>
-    <hyperlink ref="M49" r:id="rId51"/>
+    <hyperlink ref="M25" r:id="rId17"/>
+    <hyperlink ref="M26" r:id="rId18"/>
+    <hyperlink ref="M27" r:id="rId19"/>
+    <hyperlink ref="M28" r:id="rId20"/>
+    <hyperlink ref="M31" r:id="rId21"/>
+    <hyperlink ref="M32" r:id="rId22"/>
+    <hyperlink ref="M33" r:id="rId23"/>
+    <hyperlink ref="M34" r:id="rId24"/>
+    <hyperlink ref="M35" r:id="rId25"/>
+    <hyperlink ref="M36" r:id="rId26"/>
+    <hyperlink ref="M37" r:id="rId27"/>
+    <hyperlink ref="M38" r:id="rId28"/>
+    <hyperlink ref="M39" r:id="rId29"/>
+    <hyperlink ref="M40" r:id="rId30"/>
+    <hyperlink ref="M41" r:id="rId31"/>
+    <hyperlink ref="M42" r:id="rId32"/>
+    <hyperlink ref="M43" r:id="rId33"/>
+    <hyperlink ref="M44" r:id="rId34"/>
+    <hyperlink ref="M45" r:id="rId35"/>
+    <hyperlink ref="M46" r:id="rId36"/>
+    <hyperlink ref="M47" r:id="rId37"/>
+    <hyperlink ref="M48" r:id="rId38"/>
+    <hyperlink ref="M49" r:id="rId39"/>
+    <hyperlink ref="M50" r:id="rId40"/>
+    <hyperlink ref="M51" r:id="rId41"/>
+    <hyperlink ref="M52" r:id="rId42"/>
+    <hyperlink ref="M53" r:id="rId43"/>
+    <hyperlink ref="M54" r:id="rId44"/>
+    <hyperlink ref="M55" r:id="rId45"/>
+    <hyperlink ref="M56" r:id="rId46"/>
+    <hyperlink ref="M57" r:id="rId47"/>
+    <hyperlink ref="M58" r:id="rId48"/>
+    <hyperlink ref="M59" r:id="rId49"/>
+    <hyperlink ref="M60" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -5733,23 +5598,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -5766,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -5783,7 +5648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -5803,7 +5668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -5814,16 +5679,16 @@
         <v>38837</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -5834,16 +5699,16 @@
         <v>35864</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5854,16 +5719,16 @@
         <v>38817</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -5874,76 +5739,82 @@
         <v>39400</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="11">
-        <v>37265</v>
+        <v>31199</v>
       </c>
       <c r="C8" s="11">
-        <v>37481</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>34699</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11">
-        <v>37265</v>
+        <v>34759</v>
       </c>
       <c r="C9" s="11">
-        <v>37481</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>384</v>
+        <v>37287</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>537</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="11">
-        <v>37511</v>
+        <v>37288</v>
       </c>
       <c r="C10" s="11">
-        <v>37602</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>37866</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>538</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5954,16 +5825,17 @@
         <v>37481</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5974,1427 +5846,1435 @@
         <v>37602</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11">
-        <v>43132</v>
+        <v>31898</v>
       </c>
       <c r="C13" s="11">
-        <v>44058</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>617</v>
+        <v>32660</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="11">
-        <v>41791</v>
+        <v>32660</v>
       </c>
       <c r="C14" s="11">
-        <v>41671</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>619</v>
+        <v>34121</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11">
-        <v>41275</v>
+        <v>34122</v>
       </c>
       <c r="C15" s="11">
-        <v>41791</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>621</v>
+        <v>34581</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>542</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11">
-        <v>32660</v>
+        <v>40674</v>
       </c>
       <c r="C16" s="11">
-        <v>34122</v>
+        <v>42577</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="11">
-        <v>31898</v>
+        <v>40183</v>
       </c>
       <c r="C17" s="11">
-        <v>32755</v>
+        <v>40870</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="11">
-        <v>29342</v>
+        <v>37258</v>
       </c>
       <c r="C18" s="11">
-        <v>30929</v>
+        <v>39645</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="11">
-        <v>40674</v>
+        <v>40547</v>
       </c>
       <c r="C19" s="11">
-        <v>42577</v>
+        <v>41387</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="11">
-        <v>40183</v>
+        <v>41444</v>
       </c>
       <c r="C20" s="11">
-        <v>40870</v>
+        <v>41607</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="11">
-        <v>37258</v>
+        <v>40203</v>
       </c>
       <c r="C21" s="11">
-        <v>39645</v>
+        <v>40541</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="11">
-        <v>43434</v>
+        <v>41836</v>
       </c>
       <c r="C22" s="11">
-        <v>43516</v>
+        <v>42618</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="11">
-        <v>43191</v>
+        <v>42644</v>
       </c>
       <c r="C23" s="11">
-        <v>43434</v>
+        <v>42794</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11">
-        <v>42887</v>
+        <v>42795</v>
       </c>
       <c r="C24" s="11">
-        <v>43191</v>
+        <v>43738</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="11">
-        <v>41836</v>
+        <v>38727</v>
       </c>
       <c r="C25" s="11">
-        <v>42618</v>
+        <v>39049</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="11">
-        <v>42644</v>
+        <v>39210</v>
       </c>
       <c r="C26" s="11">
-        <v>42794</v>
+        <v>40050</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="11">
-        <v>42795</v>
+        <v>39099</v>
       </c>
       <c r="C27" s="11">
-        <v>43738</v>
+        <v>42837</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11">
+        <v>39190</v>
+      </c>
+      <c r="C28" s="11">
+        <v>39406</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>12</v>
+      </c>
+      <c r="B29" s="11">
+        <v>38719</v>
+      </c>
+      <c r="C29" s="11">
+        <v>39428</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11">
+        <v>40344</v>
+      </c>
+      <c r="C30" s="11">
+        <v>40771</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>13</v>
+      </c>
+      <c r="B31" s="11">
+        <v>34193</v>
+      </c>
+      <c r="C31" s="11">
+        <v>35059</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>13</v>
+      </c>
+      <c r="B32" s="11">
+        <v>34562</v>
+      </c>
+      <c r="C32" s="11">
+        <v>36717</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>13</v>
+      </c>
+      <c r="B33" s="11">
+        <v>37172</v>
+      </c>
+      <c r="C33" s="11">
+        <v>39895</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>14</v>
+      </c>
+      <c r="B34" s="11">
+        <v>35555</v>
+      </c>
+      <c r="C34" s="11">
+        <v>36409</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>14</v>
+      </c>
+      <c r="B35" s="11">
+        <v>36971</v>
+      </c>
+      <c r="C35" s="11">
+        <v>37488</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>14</v>
+      </c>
+      <c r="B36" s="11">
+        <v>37410</v>
+      </c>
+      <c r="C36" s="11">
+        <v>38496</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11">
+        <v>39154</v>
+      </c>
+      <c r="C37" s="11">
+        <v>39959</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>16</v>
+      </c>
+      <c r="B38" s="11">
+        <v>38790</v>
+      </c>
+      <c r="C38" s="11">
+        <v>39163</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>16</v>
+      </c>
+      <c r="B39" s="11">
+        <v>38454</v>
+      </c>
+      <c r="C39" s="11">
+        <v>39043</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>16</v>
+      </c>
+      <c r="B40" s="11">
+        <v>40344</v>
+      </c>
+      <c r="C40" s="11">
+        <v>40771</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11">
+        <v>41772</v>
+      </c>
+      <c r="C41" s="11">
+        <v>43131</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>17</v>
+      </c>
+      <c r="B42" s="11">
+        <v>40227</v>
+      </c>
+      <c r="C42" s="11">
+        <v>41654</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>17</v>
+      </c>
+      <c r="B43" s="11">
+        <v>39461</v>
+      </c>
+      <c r="C43" s="11">
+        <v>40192</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>18</v>
+      </c>
+      <c r="B44" s="11">
+        <v>37712</v>
+      </c>
+      <c r="C44" s="11">
+        <v>37908</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>19</v>
+      </c>
+      <c r="B45" s="11">
+        <v>39455</v>
+      </c>
+      <c r="C45" s="11">
+        <v>41380</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11">
+        <v>36446</v>
+      </c>
+      <c r="C46" s="11">
+        <v>36782</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>20</v>
+      </c>
+      <c r="B47" s="11">
+        <v>39314</v>
+      </c>
+      <c r="C47" s="11">
+        <v>39673</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>21</v>
+      </c>
+      <c r="B48" s="11">
+        <v>38473</v>
+      </c>
+      <c r="C48" s="11">
+        <v>38960</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>21</v>
+      </c>
+      <c r="B49" s="11">
+        <v>40301</v>
+      </c>
+      <c r="C49" s="11">
+        <v>40764</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>21</v>
+      </c>
+      <c r="B50" s="11">
+        <v>38112</v>
+      </c>
+      <c r="C50" s="11">
+        <v>40457</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>10</v>
-      </c>
-      <c r="B28" s="11">
-        <v>38727</v>
-      </c>
-      <c r="C28" s="11">
-        <v>39049</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>10</v>
-      </c>
-      <c r="B29" s="11">
-        <v>39210</v>
-      </c>
-      <c r="C29" s="11">
-        <v>40050</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>11</v>
-      </c>
-      <c r="B30" s="11">
-        <v>39099</v>
-      </c>
-      <c r="C30" s="11">
-        <v>42837</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>12</v>
-      </c>
-      <c r="B31" s="11">
-        <v>39190</v>
-      </c>
-      <c r="C31" s="11">
-        <v>39406</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>12</v>
-      </c>
-      <c r="B32" s="11">
-        <v>38719</v>
-      </c>
-      <c r="C32" s="11">
-        <v>39428</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>12</v>
-      </c>
-      <c r="B33" s="11">
-        <v>40344</v>
-      </c>
-      <c r="C33" s="11">
-        <v>40771</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>13</v>
-      </c>
-      <c r="B34" s="11">
-        <v>34193</v>
-      </c>
-      <c r="C34" s="11">
-        <v>35059</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>13</v>
-      </c>
-      <c r="B35" s="11">
-        <v>34562</v>
-      </c>
-      <c r="C35" s="11">
-        <v>36717</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>13</v>
-      </c>
-      <c r="B36" s="11">
-        <v>37172</v>
-      </c>
-      <c r="C36" s="11">
-        <v>39895</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>14</v>
-      </c>
-      <c r="B37" s="11">
-        <v>37410</v>
-      </c>
-      <c r="C37" s="11">
-        <v>38496</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>14</v>
-      </c>
-      <c r="B38" s="11">
-        <v>36971</v>
-      </c>
-      <c r="C38" s="11">
-        <v>37488</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>14</v>
-      </c>
-      <c r="B39" s="11">
-        <v>35555</v>
-      </c>
-      <c r="C39" s="11">
-        <v>36409</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>15</v>
-      </c>
-      <c r="B40" s="11">
-        <v>39154</v>
-      </c>
-      <c r="C40" s="11">
-        <v>39959</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>16</v>
-      </c>
-      <c r="B41" s="11">
-        <v>38790</v>
-      </c>
-      <c r="C41" s="11">
-        <v>39163</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>16</v>
-      </c>
-      <c r="B42" s="11">
-        <v>38454</v>
-      </c>
-      <c r="C42" s="11">
-        <v>39043</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>16</v>
-      </c>
-      <c r="B43" s="11">
-        <v>40344</v>
-      </c>
-      <c r="C43" s="11">
-        <v>40771</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>17</v>
-      </c>
-      <c r="B44" s="11">
-        <v>41772</v>
-      </c>
-      <c r="C44" s="11">
-        <v>43131</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>17</v>
-      </c>
-      <c r="B45" s="11">
-        <v>40227</v>
-      </c>
-      <c r="C45" s="11">
-        <v>41654</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>17</v>
-      </c>
-      <c r="B46" s="11">
-        <v>39461</v>
-      </c>
-      <c r="C46" s="11">
-        <v>40192</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>18</v>
-      </c>
-      <c r="B47" s="11">
-        <v>37712</v>
-      </c>
-      <c r="C47" s="11">
-        <v>37908</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>19</v>
-      </c>
-      <c r="B48" s="11">
-        <v>39455</v>
-      </c>
-      <c r="C48" s="11">
-        <v>41380</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>20</v>
-      </c>
-      <c r="B49" s="11">
-        <v>36446</v>
-      </c>
-      <c r="C49" s="11">
-        <v>36782</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>20</v>
-      </c>
-      <c r="B50" s="11">
-        <v>39314</v>
-      </c>
-      <c r="C50" s="11">
-        <v>39673</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="F50" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>21</v>
-      </c>
-      <c r="B51" s="11">
-        <v>38473</v>
-      </c>
-      <c r="C51" s="11">
-        <v>38960</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>21</v>
-      </c>
-      <c r="B52" s="11">
-        <v>40301</v>
-      </c>
-      <c r="C52" s="11">
-        <v>40764</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>364</v>
+        <v>22</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>21</v>
-      </c>
-      <c r="B53" s="11">
-        <v>38112</v>
-      </c>
-      <c r="C53" s="11">
-        <v>40457</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>22</v>
-      </c>
-      <c r="B54" s="11">
-        <v>38020</v>
-      </c>
-      <c r="C54" s="11">
-        <v>38664</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>22</v>
-      </c>
-      <c r="B55" s="11">
-        <v>38679</v>
-      </c>
-      <c r="C55" s="11">
-        <v>38911</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>472</v>
+        <v>23</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>22</v>
-      </c>
-      <c r="B56" s="11">
-        <v>38751</v>
-      </c>
-      <c r="C56" s="11">
-        <v>39638</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" s="11">
-        <v>40547</v>
+        <v>39387</v>
       </c>
       <c r="C57" s="11">
-        <v>41387</v>
+        <v>40668</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>475</v>
+        <v>358</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="11">
-        <v>41444</v>
+        <v>40913</v>
       </c>
       <c r="C58" s="11">
-        <v>41607</v>
+        <v>42397</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>477</v>
+        <v>358</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" s="11">
-        <v>40203</v>
-      </c>
-      <c r="C59" s="11">
-        <v>40541</v>
-      </c>
+        <v>42398</v>
+      </c>
+      <c r="C59" s="11"/>
       <c r="D59" s="7" t="s">
-        <v>477</v>
+        <v>358</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>24</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>25</v>
       </c>
       <c r="B60" s="11">
-        <v>39387</v>
+        <v>40544</v>
       </c>
       <c r="C60" s="11">
-        <v>40668</v>
+        <v>41851</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>24</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>25</v>
       </c>
       <c r="B61" s="11">
-        <v>40913</v>
+        <v>41852</v>
       </c>
       <c r="C61" s="11">
-        <v>42397</v>
+        <v>42261</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>24</v>
+      <c r="A62" s="6">
+        <v>25</v>
       </c>
       <c r="B62" s="11">
-        <v>42398</v>
+        <v>42262</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>25</v>
+      <c r="A63" s="7">
+        <v>26</v>
       </c>
       <c r="B63" s="11">
-        <v>40544</v>
+        <v>40210</v>
       </c>
       <c r="C63" s="11">
-        <v>41851</v>
+        <v>42004</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>25</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>26</v>
       </c>
       <c r="B64" s="11">
-        <v>41852</v>
+        <v>42005</v>
       </c>
       <c r="C64" s="11">
-        <v>42261</v>
+        <v>42643</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>25</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>26</v>
       </c>
       <c r="B65" s="11">
-        <v>42262</v>
-      </c>
-      <c r="C65" s="11"/>
+        <v>42736</v>
+      </c>
+      <c r="C65" s="11">
+        <v>43159</v>
+      </c>
       <c r="D65" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" s="11">
-        <v>40210</v>
+        <v>42948</v>
       </c>
       <c r="C66" s="11">
-        <v>42004</v>
+        <v>43281</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="11">
-        <v>42005</v>
+        <v>43070</v>
       </c>
       <c r="C67" s="11">
-        <v>42643</v>
+        <v>42948</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" s="11">
-        <v>42736</v>
+        <v>42614</v>
       </c>
       <c r="C68" s="11">
-        <v>43159</v>
+        <v>42704</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69" s="11">
-        <v>42948</v>
+        <v>38384</v>
       </c>
       <c r="C69" s="11">
-        <v>43281</v>
+        <v>38717</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" s="11">
-        <v>43070</v>
+        <v>38718</v>
       </c>
       <c r="C70" s="11">
-        <v>42948</v>
+        <v>38874</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>491</v>
+        <v>344</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>490</v>
+        <v>358</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>28</v>
       </c>
       <c r="B71" s="11">
-        <v>42614</v>
+        <v>38875</v>
       </c>
       <c r="C71" s="11">
-        <v>42704</v>
+        <v>39084</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>29</v>
       </c>
       <c r="B72" s="11">
-        <v>42528</v>
+        <v>37266</v>
       </c>
       <c r="C72" s="11">
-        <v>42737</v>
+        <v>37908</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73" s="11">
-        <v>37653</v>
+        <v>38971</v>
       </c>
       <c r="C73" s="11">
-        <v>37894</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>498</v>
+        <v>40009</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>30</v>
       </c>
       <c r="B74" s="11">
-        <v>37266</v>
+        <v>40010</v>
       </c>
       <c r="C74" s="11">
-        <v>37908</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>501</v>
+        <v>42885</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>30</v>
       </c>
       <c r="B75" s="11">
+        <v>42886</v>
+      </c>
+      <c r="C75" s="11">
+        <v>43403</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>31</v>
+      </c>
+      <c r="B76" s="11">
+        <v>42887</v>
+      </c>
+      <c r="C76" s="11">
+        <v>43516</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>32</v>
+      </c>
+      <c r="B77" s="11">
+        <v>42248</v>
+      </c>
+      <c r="C77" s="11">
+        <v>42886</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>33</v>
+      </c>
+      <c r="B78" s="11">
+        <v>42125</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>34</v>
+      </c>
+      <c r="B79" s="11">
         <v>37653</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C79" s="11">
         <v>37894</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>30</v>
-      </c>
-      <c r="B76" s="11">
-        <v>37895</v>
-      </c>
-      <c r="C76" s="11">
-        <v>38748</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>31</v>
-      </c>
-      <c r="B77" s="11">
-        <v>42887</v>
-      </c>
-      <c r="C77" s="11">
-        <v>43516</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>32</v>
-      </c>
-      <c r="B78" s="11">
-        <v>42248</v>
-      </c>
-      <c r="C78" s="11">
-        <v>42886</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>33</v>
-      </c>
-      <c r="B79" s="11">
-        <v>42125</v>
-      </c>
-      <c r="C79" s="11"/>
       <c r="D79" s="7" t="s">
-        <v>508</v>
+        <v>358</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>34</v>
       </c>
       <c r="B80" s="11">
-        <v>37653</v>
+        <v>36592</v>
       </c>
       <c r="C80" s="11">
-        <v>37894</v>
+        <v>38763</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" s="11">
-        <v>36592</v>
+        <v>40969</v>
       </c>
       <c r="C81" s="11">
-        <v>38763</v>
+        <v>41305</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>35</v>
       </c>
       <c r="B82" s="11">
-        <v>40969</v>
+        <v>40576</v>
       </c>
       <c r="C82" s="11">
-        <v>41305</v>
+        <v>41162</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" s="11">
-        <v>40576</v>
+        <v>40549</v>
       </c>
       <c r="C83" s="11">
-        <v>41162</v>
+        <v>40898</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>479</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,19 +7282,19 @@
         <v>36</v>
       </c>
       <c r="B84" s="11">
-        <v>40549</v>
+        <v>38749</v>
       </c>
       <c r="C84" s="11">
-        <v>40898</v>
+        <v>38807</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>271</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,39 +7302,39 @@
         <v>36</v>
       </c>
       <c r="B85" s="11">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="C85" s="11">
-        <v>38807</v>
+        <v>38821</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B86" s="11">
-        <v>38777</v>
+        <v>40344</v>
       </c>
       <c r="C86" s="11">
-        <v>38821</v>
+        <v>40771</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>520</v>
+        <v>328</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>519</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7462,79 +7342,77 @@
         <v>37</v>
       </c>
       <c r="B87" s="11">
-        <v>40344</v>
+        <v>38049</v>
       </c>
       <c r="C87" s="11">
-        <v>40771</v>
+        <v>38552</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>37</v>
       </c>
       <c r="B88" s="11">
-        <v>38049</v>
+        <v>37292</v>
       </c>
       <c r="C88" s="11">
-        <v>38552</v>
+        <v>37998</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B89" s="11">
-        <v>37292</v>
+        <v>41487</v>
       </c>
       <c r="C89" s="11">
-        <v>37998</v>
+        <v>41805</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>38</v>
       </c>
       <c r="B90" s="11">
-        <v>41487</v>
-      </c>
-      <c r="C90" s="11">
-        <v>41805</v>
-      </c>
+        <v>41883</v>
+      </c>
+      <c r="C90" s="11"/>
       <c r="D90" s="7" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7542,40 +7420,42 @@
         <v>38</v>
       </c>
       <c r="B91" s="11">
-        <v>41883</v>
-      </c>
-      <c r="C91" s="11"/>
+        <v>41806</v>
+      </c>
+      <c r="C91" s="11">
+        <v>42643</v>
+      </c>
       <c r="D91" s="7" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B92" s="11">
-        <v>41806</v>
+        <v>33666</v>
       </c>
       <c r="C92" s="11">
-        <v>42643</v>
+        <v>34164</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>39</v>
       </c>
@@ -7586,53 +7466,53 @@
         <v>34164</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B94" s="11">
-        <v>33666</v>
+        <v>35479</v>
       </c>
       <c r="C94" s="11">
-        <v>34164</v>
+        <v>36936</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>40</v>
       </c>
       <c r="B95" s="11">
-        <v>35479</v>
+        <v>36586</v>
       </c>
       <c r="C95" s="11">
-        <v>36936</v>
+        <v>37139</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>534</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7640,705 +7520,686 @@
         <v>40</v>
       </c>
       <c r="B96" s="11">
-        <v>36586</v>
+        <v>37719</v>
       </c>
       <c r="C96" s="11">
-        <v>37139</v>
+        <v>38078</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>535</v>
+        <v>471</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B97" s="11">
-        <v>37719</v>
+        <v>38020</v>
       </c>
       <c r="C97" s="11">
-        <v>38078</v>
+        <v>38664</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>537</v>
+        <v>413</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>41</v>
       </c>
       <c r="B98" s="11">
-        <v>38020</v>
+        <v>40179</v>
       </c>
       <c r="C98" s="11">
-        <v>38664</v>
+        <v>40909</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>41</v>
       </c>
       <c r="B99" s="11">
-        <v>40179</v>
+        <v>42374</v>
       </c>
       <c r="C99" s="11">
-        <v>40909</v>
+        <v>42753</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>541</v>
+        <v>327</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B100" s="11">
-        <v>42374</v>
+        <v>34654</v>
       </c>
       <c r="C100" s="11">
-        <v>42753</v>
+        <v>35308</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>42</v>
       </c>
       <c r="B101" s="11">
-        <v>34654</v>
+        <v>35309</v>
       </c>
       <c r="C101" s="11">
-        <v>35308</v>
+        <v>38017</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>42</v>
       </c>
       <c r="B102" s="11">
-        <v>35309</v>
+        <v>38018</v>
       </c>
       <c r="C102" s="11">
-        <v>38017</v>
+        <v>42870</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B103" s="11">
-        <v>38018</v>
+        <v>37803</v>
       </c>
       <c r="C103" s="11">
-        <v>42870</v>
+        <v>37940</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>43</v>
       </c>
       <c r="B104" s="11">
-        <v>37803</v>
+        <v>37941</v>
       </c>
       <c r="C104" s="11">
-        <v>37940</v>
+        <v>38352</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>43</v>
       </c>
       <c r="B105" s="11">
-        <v>37941</v>
+        <v>38353</v>
       </c>
       <c r="C105" s="11">
-        <v>38352</v>
+        <v>39202</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="11">
-        <v>38353</v>
+        <v>36161</v>
       </c>
       <c r="C106" s="11">
-        <v>39202</v>
+        <v>40056</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>549</v>
+        <v>486</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44</v>
       </c>
       <c r="B107" s="11">
-        <v>36161</v>
+        <v>35370</v>
       </c>
       <c r="C107" s="11">
-        <v>40056</v>
+        <v>36160</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>553</v>
+        <v>346</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>554</v>
+        <v>489</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44</v>
       </c>
       <c r="B108" s="11">
-        <v>35370</v>
+        <v>34394</v>
       </c>
       <c r="C108" s="11">
-        <v>36160</v>
+        <v>35246</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
-        <v>44</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45</v>
       </c>
       <c r="B109" s="11">
-        <v>34394</v>
+        <v>41867</v>
       </c>
       <c r="C109" s="11">
-        <v>35246</v>
+        <v>42429</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45</v>
       </c>
       <c r="B110" s="11">
-        <v>41867</v>
+        <v>42430</v>
       </c>
       <c r="C110" s="11">
-        <v>42429</v>
+        <v>42521</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45</v>
       </c>
       <c r="B111" s="11">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="C111" s="11">
-        <v>42521</v>
+        <v>43159</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>45</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>46</v>
       </c>
       <c r="B112" s="11">
-        <v>42522</v>
+        <v>43891</v>
       </c>
       <c r="C112" s="11">
-        <v>43159</v>
+        <v>44012</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>413</v>
+        <v>497</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>563</v>
+        <v>406</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>46</v>
       </c>
       <c r="B113" s="11">
-        <v>43891</v>
-      </c>
-      <c r="C113" s="11">
-        <v>44012</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C113" s="11"/>
       <c r="D113" s="7" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>46</v>
       </c>
       <c r="B114" s="11">
-        <v>44075</v>
-      </c>
-      <c r="C114" s="11"/>
+        <v>44136</v>
+      </c>
+      <c r="C114" s="11">
+        <v>44196</v>
+      </c>
       <c r="D114" s="7" t="s">
-        <v>599</v>
+        <v>349</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B115" s="11">
-        <v>44136</v>
+        <v>33772</v>
       </c>
       <c r="C115" s="11">
-        <v>44196</v>
+        <v>34171</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>47</v>
       </c>
       <c r="B116" s="11">
-        <v>33772</v>
+        <v>34521</v>
       </c>
       <c r="C116" s="11">
-        <v>34171</v>
+        <v>34702</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" s="11">
-        <v>34521</v>
+        <v>34898</v>
       </c>
       <c r="C117" s="11">
-        <v>34702</v>
+        <v>36605</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>567</v>
+        <v>502</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>48</v>
       </c>
       <c r="B118" s="11">
-        <v>34898</v>
+        <v>37994</v>
       </c>
       <c r="C118" s="11">
-        <v>36605</v>
+        <v>38427</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>570</v>
+        <v>399</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="11">
-        <v>37994</v>
+        <v>37384</v>
       </c>
       <c r="C119" s="11">
-        <v>38427</v>
+        <v>38006</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>49</v>
       </c>
       <c r="B120" s="11">
-        <v>37384</v>
+        <v>38811</v>
       </c>
       <c r="C120" s="11">
-        <v>38006</v>
+        <v>41528</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>49</v>
       </c>
       <c r="B121" s="11">
-        <v>38811</v>
+        <v>37776</v>
       </c>
       <c r="C121" s="11">
-        <v>41528</v>
+        <v>38965</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B122" s="11">
-        <v>37776</v>
+        <v>37628</v>
       </c>
       <c r="C122" s="11">
-        <v>38965</v>
+        <v>38903</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>50</v>
       </c>
       <c r="B123" s="11">
-        <v>37628</v>
+        <v>37656</v>
       </c>
       <c r="C123" s="11">
-        <v>38903</v>
+        <v>39946</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>50</v>
       </c>
       <c r="B124" s="11">
-        <v>37656</v>
+        <v>37691</v>
       </c>
       <c r="C124" s="11">
-        <v>39946</v>
+        <v>42653</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>582</v>
+        <v>517</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B125" s="11">
-        <v>37691</v>
+        <v>37712</v>
       </c>
       <c r="C125" s="11">
-        <v>42653</v>
+        <v>37908</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B126" s="11">
-        <v>37712</v>
+        <v>37370</v>
       </c>
       <c r="C126" s="11">
-        <v>37908</v>
+        <v>38855</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127" s="11">
-        <v>37370</v>
+        <v>38720</v>
       </c>
       <c r="C127" s="11">
-        <v>38855</v>
+        <v>39009</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>53</v>
       </c>
       <c r="B128" s="11">
-        <v>38720</v>
+        <v>38078</v>
       </c>
       <c r="C128" s="11">
-        <v>39009</v>
+        <v>39574</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>53</v>
       </c>
       <c r="B129" s="11">
-        <v>38078</v>
+        <v>39543</v>
       </c>
       <c r="C129" s="11">
-        <v>39574</v>
+        <v>40035</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>595</v>
+        <v>327</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
-        <v>53</v>
-      </c>
-      <c r="B130" s="11">
-        <v>39543</v>
-      </c>
-      <c r="C130" s="11">
-        <v>40035</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f17UPPachuca.xlsx
+++ b/xlsx/a69_f17UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46549031-D20E-4BF8-80BD-B445F178A99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1857,7 +1851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2011,6 +2005,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2027,12 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,18 +2301,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="H60" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,16 +2320,16 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="53" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="46" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="67.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="53" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="13" max="13" width="80.140625" customWidth="1"/>
     <col min="14" max="14" width="74" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
@@ -2350,46 +2344,46 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2450,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2510,27 +2504,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2854,7 +2848,7 @@
       <c r="R12" s="4">
         <v>44844</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="13" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3011,7 +3005,7 @@
       <c r="R15" s="4">
         <v>44844</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="12" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5501,65 +5495,65 @@
     <mergeCell ref="G2:M2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J54:K54 K52 J46:J48 J50:J53 J8:J44 J55:J200" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J54:K54 K52 J46:J48 J50:J53 J8:J44 J55:J200">
       <formula1>Hidden_19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N200" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N200">
       <formula1>Hidden_213</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M50" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M29" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="M9" r:id="rId2"/>
+    <hyperlink ref="M10" r:id="rId3"/>
+    <hyperlink ref="M11" r:id="rId4"/>
+    <hyperlink ref="M13" r:id="rId5"/>
+    <hyperlink ref="M14" r:id="rId6"/>
+    <hyperlink ref="M30" r:id="rId7"/>
+    <hyperlink ref="M16" r:id="rId8"/>
+    <hyperlink ref="M17" r:id="rId9"/>
+    <hyperlink ref="M18" r:id="rId10"/>
+    <hyperlink ref="M19" r:id="rId11"/>
+    <hyperlink ref="M20" r:id="rId12"/>
+    <hyperlink ref="M21" r:id="rId13"/>
+    <hyperlink ref="M22" r:id="rId14"/>
+    <hyperlink ref="M23" r:id="rId15"/>
+    <hyperlink ref="M25" r:id="rId16"/>
+    <hyperlink ref="M26" r:id="rId17"/>
+    <hyperlink ref="M27" r:id="rId18"/>
+    <hyperlink ref="M31" r:id="rId19"/>
+    <hyperlink ref="M32" r:id="rId20"/>
+    <hyperlink ref="M33" r:id="rId21"/>
+    <hyperlink ref="M34" r:id="rId22"/>
+    <hyperlink ref="M35" r:id="rId23"/>
+    <hyperlink ref="M36" r:id="rId24"/>
+    <hyperlink ref="M37" r:id="rId25"/>
+    <hyperlink ref="M38" r:id="rId26"/>
+    <hyperlink ref="M39" r:id="rId27"/>
+    <hyperlink ref="M40" r:id="rId28"/>
+    <hyperlink ref="M41" r:id="rId29"/>
+    <hyperlink ref="M42" r:id="rId30"/>
+    <hyperlink ref="M43" r:id="rId31"/>
+    <hyperlink ref="M44" r:id="rId32"/>
+    <hyperlink ref="M45" r:id="rId33"/>
+    <hyperlink ref="M46" r:id="rId34"/>
+    <hyperlink ref="M47" r:id="rId35"/>
+    <hyperlink ref="M48" r:id="rId36"/>
+    <hyperlink ref="M50" r:id="rId37"/>
+    <hyperlink ref="M51" r:id="rId38"/>
+    <hyperlink ref="M52" r:id="rId39"/>
+    <hyperlink ref="M53" r:id="rId40"/>
+    <hyperlink ref="M54" r:id="rId41"/>
+    <hyperlink ref="M55" r:id="rId42"/>
+    <hyperlink ref="M56" r:id="rId43"/>
+    <hyperlink ref="M57" r:id="rId44"/>
+    <hyperlink ref="M58" r:id="rId45"/>
+    <hyperlink ref="M59" r:id="rId46"/>
+    <hyperlink ref="M60" r:id="rId47"/>
+    <hyperlink ref="M24" r:id="rId48"/>
+    <hyperlink ref="M29" r:id="rId49"/>
+    <hyperlink ref="M49" r:id="rId50"/>
+    <hyperlink ref="M28" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
@@ -5567,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5630,7 +5624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5653,7 +5647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">

--- a/xlsx/a69_f17UPPachuca.xlsx
+++ b/xlsx/a69_f17UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sipot 1er tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="15600" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1476,141 +1481,6 @@
     <t>Ciencias Ópticas</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/MARTINEZ%20MIRELES%20JOSUE%20ROMAN.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GARCIA%20MARQUEZ%20MARCO%20ANTONIO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/CHIO%20AUSTRIA%20ROSA%20MARIA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/JIMENEZ%20BARRIOS%20SALVADOR.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/HERRERA%20RIVAS%20EDUARDO%20RUBEN.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/TREJO%20MACOTELA%20FRANCISCO%20RAFAEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/FERNANDEZ%20SANCHEZ%20ALDA%20NELLY.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/MONTES%20MONROY%20JUAN%20MANUEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GONZALEZ%20PERALTA%20MAYRA%20FABIOLA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/TORRES%20GONZALEZ%20MIGUEL%20ANGEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GOMEZ%20VALADEZ%20ALEJANDRINA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/AGUILERA%20JIMENEZ%20MIGUEL%20ANGEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/HERNANDEZ%20HERNANDEZ%20KAREM.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/ORTIZ%20HERNANDEZ%20IZTMITL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GARCIA%20ESCORZA%20BRENDA%20BERENICE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/CHAVEZ%20BORGES%20ITZEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/SANCHEZ%20VALENCIA%20JUAN%20MANUEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/OLIVARES%20ESCORZA%20MAYTE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/ALVAREZ%20CERVANTES%20JORGE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/AUSTRIA%20CORNEJO%20ARTURO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/PASCUAL%20FRANCISCO%20JUAN%20BENITO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/FLORES%20PEREZ%20MARIA%20GUADALUPE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/MEJIA%20CRUZ%20AGUSTIN.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GODINEZ%20CRUZ%20JHONATHAN%20GONZALO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/SALAS%20LOPEZ%20JULIO%20CESAR.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/LOPEZ%20PINEDA%20FEDERICO%20JESUS.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/BRIONES%20HERNANDEZ%20LUCIA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/BAENA%20SANCHEZ%20MARY%20CARMEN.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/VALDIVIESO%20RODRIGUEZ%20MIGUEL%20ANGEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/ESQUIVEL%20MARTINEZ%20GERARDO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/AREVALO%20BAENA%20LOURDES%20GUADALUPE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/EGUILUZ%20RUIZ%20BRENDA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/CORTES%20MARTINEZ%20NANCY%20JUDITH.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/HERNANDEZ%20CRUZ%20MAYELI.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/RODRIGUEZ%20OLVERA%20ROMULO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/REYES%20TINAJAR%20ELIZABETH.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/LUNA%20CRUZ%20DAVID.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/MORENO%20CALVA%20DONACIANO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/GAYOSSO%20GUTIERREZ%20MARCO%20ANTONIO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/DORANTES%20CASTILLO%20CESAR%20HUGO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/HERNANDEZ%20CASTILLO%20JUAN%20MANUEL.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/SANCHEZ%20DIAZ%20MARGARITA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/PROA%20DE%20LA%20FUENTE%20GUADALUPE.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/JUARICO%20GUASO%20JESUS%20EDUARDO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/17/CISNEROS%20MARTINEZ%20SERGIO%20ARMANDO.pdf</t>
-  </si>
-  <si>
     <t>Derecho Procesal Penal</t>
   </si>
   <si>
@@ -1758,6 +1628,141 @@
   </si>
   <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/Renata%20M%20E%20Hernandez%20Valencia.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/3173%20MARTINEZ%20MIRELES%20JOSUE%20ROMAN.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/1092%20GARCIA%20MARQUEZ%20MARCO%20ANTONIO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/12652%20CHIO%20AUSTRIA%20ROSA%20MARIA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17403%20JIMENEZ%20BARRIOS%20SALVADOR.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/21358%20HERRERA%20RIVAS%20EDUARDO%20RUBEN.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2242%20TREJO%20MACOTELA%20FRANCISCO%20RAFAEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/7230%20FERNANDEZ%20SANCHEZ%20ALDA%20NELLY.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17345%20%20MONTES%20MONROY%20JUAN%20MANUEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/5918%20GONZALEZ%20PERALTA%20MAYRA%20FABIOLA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/8501%20TORRES%20GONZALEZ%20MIGUEL%20ANGEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/12542%20GOMEZ%20VALADEZ%20ALEJANDRINA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2288%20AGUILERA%20JIMENEZ%20MIGUEL%20ANGEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/1068%20HERNANDEZ%20HERNANDEZ%20KAREM.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/5625%20ORTIZ%20HERNANDEZ%20IZTMITL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/9439%20GARCIA%20ESCORZA%20BRENDA%20BERENICE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/14139%20CHAVEZ%20BORGES%20ITZEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17332%20SANCHEZ%20VALENCIA%20JUAN%20MANUEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/1002%20OLIVARES%20ESCORZA%20MAYTE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/8452%20ALVAREZ%20CERVANTES%20JORGE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/18820%20AUSTRIA%20CORNEJO%20ARTURO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/18894%20PASCUAL%20FRANCISCO%20JUAN%20BENITO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/12346%20FLORES%20PEREZ%20MARIA%20GUADALUPE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2314%20MEJIA%20CRUZ%20AGUSTIN.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/1050%20CISNEROS%20MARTINEZ%20SERGIO%20ARMANDO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/10942%20GODINEZ%20CRUZ%20JHONATHAN%20GONZALO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/4027%20%20SALAS%20LOPEZ%20JULIO%20CESAR.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/1047%20BRIONES%20HERNANDEZ%20LUCIA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17338%20BAENA%20SANCHEZ%20MARY%20CARMEN.pdf</t>
+  </si>
+  <si>
+    <t>sftp://UPPachuca@transparenciadocs.hidalgo.gob.mx/dir1/2023/SIPOT/1er%20Trimestre/F17/2299%20VALDIVIESO%20RODRIGUEZ%20MIGUEL%20ANGEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/10991%20ESQUIVEL%20MARTINEZ%20GERARDO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/7243%20LOPEZ%20PINEDA%20FEDERICO%20JESUS.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/3975%20AREVALO%20BAENA%20LOURDES%20GUADALUPE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/18829%20EGUILUZ%20RUIZ%20BRENDA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2978%20CORTES%20MARTINEZ%20NANCY%20JUDITH.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/10944%20HERNANDEZ%20CRUZ%20MAYELI.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/7220%20RODRIGUEZ%20OLVERA%20ROMULO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/13284%20REYES%20TINAJAR%20ELIZABETH.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/3230%20LUNA%20CRUZ%20DAVID.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/12439%20MORENO%20CALVA%20DONACIANO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17321%20GAYOSSO%20GUTIERREZ%20MARCO%20ANTONIO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/15702%20%20DORANTES%20CASTILLO%20CESAR%20HUGO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2275%20HERNANDEZ%20CASTILLO%20JUAN%20MANUEL.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/4427%20SANCHEZ%20DIAZ%20MARGARITA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/10663%20PROA%20DE%20LA%20FUENTE%20GUADALUPE.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/3238%20%20JUARICO%20GUASO%20JESUS%20EDUARDO.pdf</t>
   </si>
 </sst>
 </file>
@@ -1901,11 +1906,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1915,6 +1915,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2188,7 +2193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2198,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,38 +2236,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2383,27 +2388,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2501,8 +2506,8 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="21" t="s">
-        <v>571</v>
+      <c r="M8" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>65</v>
@@ -2556,8 +2561,8 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>484</v>
+      <c r="M9" s="17" t="s">
+        <v>533</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>65</v>
@@ -2574,7 +2579,7 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2023</v>
       </c>
@@ -2606,13 +2611,13 @@
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>572</v>
+      <c r="M10" s="17" t="s">
+        <v>527</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>65</v>
@@ -2666,8 +2671,8 @@
       <c r="L11" s="3">
         <v>4</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>485</v>
+      <c r="M11" s="17" t="s">
+        <v>534</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>65</v>
@@ -2721,8 +2726,8 @@
       <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>486</v>
+      <c r="M12" s="17" t="s">
+        <v>535</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>65</v>
@@ -2776,8 +2781,8 @@
       <c r="L13" s="3">
         <v>6</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>487</v>
+      <c r="M13" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>65</v>
@@ -2831,8 +2836,8 @@
       <c r="L14" s="3">
         <v>7</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>488</v>
+      <c r="M14" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>65</v>
@@ -2886,8 +2891,8 @@
       <c r="L15" s="3">
         <v>8</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>489</v>
+      <c r="M15" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>65</v>
@@ -2941,8 +2946,8 @@
       <c r="L16" s="3">
         <v>9</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>490</v>
+      <c r="M16" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>65</v>
@@ -2996,8 +3001,8 @@
       <c r="L17" s="3">
         <v>10</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>491</v>
+      <c r="M17" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>65</v>
@@ -3051,8 +3056,8 @@
       <c r="L18" s="3">
         <v>11</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>492</v>
+      <c r="M18" s="17" t="s">
+        <v>541</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>65</v>
@@ -3106,8 +3111,8 @@
       <c r="L19" s="3">
         <v>12</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>493</v>
+      <c r="M19" s="17" t="s">
+        <v>542</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>65</v>
@@ -3161,8 +3166,8 @@
       <c r="L20" s="3">
         <v>13</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>494</v>
+      <c r="M20" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>65</v>
@@ -3216,8 +3221,8 @@
       <c r="L21" s="3">
         <v>14</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>495</v>
+      <c r="M21" s="17" t="s">
+        <v>544</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>65</v>
@@ -3271,8 +3276,8 @@
       <c r="L22" s="3">
         <v>15</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>496</v>
+      <c r="M22" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>65</v>
@@ -3326,8 +3331,8 @@
       <c r="L23" s="3">
         <v>16</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>497</v>
+      <c r="M23" s="17" t="s">
+        <v>546</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>65</v>
@@ -3381,8 +3386,8 @@
       <c r="L24" s="3">
         <v>17</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>498</v>
+      <c r="M24" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>65</v>
@@ -3436,8 +3441,8 @@
       <c r="L25" s="3">
         <v>18</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>499</v>
+      <c r="M25" s="17" t="s">
+        <v>548</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>65</v>
@@ -3491,8 +3496,8 @@
       <c r="L26" s="3">
         <v>19</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>500</v>
+      <c r="M26" s="17" t="s">
+        <v>549</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>65</v>
@@ -3546,8 +3551,8 @@
       <c r="L27" s="3">
         <v>20</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>501</v>
+      <c r="M27" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>65</v>
@@ -3601,8 +3606,8 @@
       <c r="L28" s="3">
         <v>21</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>502</v>
+      <c r="M28" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>65</v>
@@ -3619,7 +3624,7 @@
       </c>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2023</v>
       </c>
@@ -3656,8 +3661,8 @@
       <c r="L29" s="3">
         <v>22</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>503</v>
+      <c r="M29" s="17" t="s">
+        <v>552</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>65</v>
@@ -3711,8 +3716,8 @@
       <c r="L30" s="3">
         <v>23</v>
       </c>
-      <c r="M30" s="20" t="s">
-        <v>504</v>
+      <c r="M30" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>65</v>
@@ -3729,7 +3734,7 @@
       </c>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2023</v>
       </c>
@@ -3766,8 +3771,8 @@
       <c r="L31" s="3">
         <v>24</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>505</v>
+      <c r="M31" s="17" t="s">
+        <v>554</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>65</v>
@@ -3821,8 +3826,8 @@
       <c r="L32" s="3">
         <v>25</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>506</v>
+      <c r="M32" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>65</v>
@@ -3871,13 +3876,13 @@
         <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="L33" s="3">
         <v>26</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>573</v>
+      <c r="M33" s="17" t="s">
+        <v>528</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>65</v>
@@ -3894,7 +3899,7 @@
       </c>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2023</v>
       </c>
@@ -3931,8 +3936,8 @@
       <c r="L34" s="3">
         <v>27</v>
       </c>
-      <c r="M34" s="20" t="s">
-        <v>528</v>
+      <c r="M34" s="17" t="s">
+        <v>556</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>65</v>
@@ -3986,8 +3991,8 @@
       <c r="L35" s="3">
         <v>28</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>507</v>
+      <c r="M35" s="17" t="s">
+        <v>557</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>65</v>
@@ -4004,7 +4009,7 @@
       </c>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2023</v>
       </c>
@@ -4041,8 +4046,8 @@
       <c r="L36" s="3">
         <v>29</v>
       </c>
-      <c r="M36" s="20" t="s">
-        <v>508</v>
+      <c r="M36" s="17" t="s">
+        <v>558</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>65</v>
@@ -4059,7 +4064,7 @@
       </c>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2023</v>
       </c>
@@ -4091,13 +4096,13 @@
         <v>59</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="L37" s="3">
         <v>30</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>574</v>
+      <c r="M37" s="17" t="s">
+        <v>529</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>65</v>
@@ -4151,8 +4156,8 @@
       <c r="L38" s="3">
         <v>31</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>510</v>
+      <c r="M38" s="17" t="s">
+        <v>559</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>65</v>
@@ -4169,7 +4174,7 @@
       </c>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2023</v>
       </c>
@@ -4206,8 +4211,8 @@
       <c r="L39" s="3">
         <v>32</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>511</v>
+      <c r="M39" s="17" t="s">
+        <v>560</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>65</v>
@@ -4224,7 +4229,7 @@
       </c>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2023</v>
       </c>
@@ -4261,8 +4266,8 @@
       <c r="L40" s="3">
         <v>33</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>512</v>
+      <c r="M40" s="17" t="s">
+        <v>561</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>65</v>
@@ -4279,7 +4284,7 @@
       </c>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2023</v>
       </c>
@@ -4316,8 +4321,8 @@
       <c r="L41" s="3">
         <v>34</v>
       </c>
-      <c r="M41" s="20" t="s">
-        <v>513</v>
+      <c r="M41" s="17" t="s">
+        <v>562</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>65</v>
@@ -4334,7 +4339,7 @@
       </c>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2023</v>
       </c>
@@ -4371,8 +4376,8 @@
       <c r="L42" s="3">
         <v>35</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>509</v>
+      <c r="M42" s="17" t="s">
+        <v>563</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>65</v>
@@ -4389,7 +4394,7 @@
       </c>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2023</v>
       </c>
@@ -4426,8 +4431,8 @@
       <c r="L43" s="3">
         <v>36</v>
       </c>
-      <c r="M43" s="20" t="s">
-        <v>514</v>
+      <c r="M43" s="17" t="s">
+        <v>564</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>65</v>
@@ -4481,8 +4486,8 @@
       <c r="L44" s="3">
         <v>37</v>
       </c>
-      <c r="M44" s="20" t="s">
-        <v>515</v>
+      <c r="M44" s="17" t="s">
+        <v>565</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>65</v>
@@ -4499,7 +4504,7 @@
       </c>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2023</v>
       </c>
@@ -4536,8 +4541,8 @@
       <c r="L45" s="3">
         <v>38</v>
       </c>
-      <c r="M45" s="20" t="s">
-        <v>516</v>
+      <c r="M45" s="17" t="s">
+        <v>566</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>65</v>
@@ -4591,8 +4596,8 @@
       <c r="L46" s="3">
         <v>39</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>517</v>
+      <c r="M46" s="17" t="s">
+        <v>567</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>65</v>
@@ -4646,8 +4651,8 @@
       <c r="L47" s="3">
         <v>40</v>
       </c>
-      <c r="M47" s="20" t="s">
-        <v>518</v>
+      <c r="M47" s="17" t="s">
+        <v>568</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>65</v>
@@ -4701,8 +4706,8 @@
       <c r="L48" s="3">
         <v>41</v>
       </c>
-      <c r="M48" s="20" t="s">
-        <v>519</v>
+      <c r="M48" s="17" t="s">
+        <v>569</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>65</v>
@@ -4719,7 +4724,7 @@
       </c>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2023</v>
       </c>
@@ -4756,8 +4761,8 @@
       <c r="L49" s="3">
         <v>42</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>575</v>
+      <c r="M49" s="17" t="s">
+        <v>530</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>65</v>
@@ -4774,7 +4779,7 @@
       </c>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2023</v>
       </c>
@@ -4811,8 +4816,8 @@
       <c r="L50" s="3">
         <v>43</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>520</v>
+      <c r="M50" s="17" t="s">
+        <v>570</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>65</v>
@@ -4866,7 +4871,7 @@
       <c r="L51" s="3">
         <v>44</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="3" t="s">
         <v>65</v>
       </c>
@@ -4921,8 +4926,8 @@
       <c r="L52" s="3">
         <v>45</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>521</v>
+      <c r="M52" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>65</v>
@@ -4976,8 +4981,8 @@
       <c r="L53" s="3">
         <v>46</v>
       </c>
-      <c r="M53" s="20" t="s">
-        <v>522</v>
+      <c r="M53" s="17" t="s">
+        <v>572</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>65</v>
@@ -5031,8 +5036,8 @@
       <c r="L54" s="3">
         <v>47</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>576</v>
+      <c r="M54" s="17" t="s">
+        <v>531</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>65</v>
@@ -5086,8 +5091,8 @@
       <c r="L55" s="3">
         <v>48</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>523</v>
+      <c r="M55" s="17" t="s">
+        <v>573</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>65</v>
@@ -5141,8 +5146,8 @@
       <c r="L56" s="3">
         <v>49</v>
       </c>
-      <c r="M56" s="20" t="s">
-        <v>524</v>
+      <c r="M56" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>65</v>
@@ -5196,8 +5201,8 @@
       <c r="L57" s="3">
         <v>50</v>
       </c>
-      <c r="M57" s="20" t="s">
-        <v>525</v>
+      <c r="M57" s="17" t="s">
+        <v>575</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>65</v>
@@ -5214,7 +5219,7 @@
       </c>
       <c r="S57" s="8"/>
     </row>
-    <row r="58" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2023</v>
       </c>
@@ -5251,8 +5256,8 @@
       <c r="L58" s="3">
         <v>51</v>
       </c>
-      <c r="M58" s="20" t="s">
-        <v>526</v>
+      <c r="M58" s="17" t="s">
+        <v>576</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>65</v>
@@ -5269,7 +5274,7 @@
       </c>
       <c r="S58" s="8"/>
     </row>
-    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2023</v>
       </c>
@@ -5301,13 +5306,13 @@
         <v>60</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="L59" s="3">
         <v>52</v>
       </c>
-      <c r="M59" s="20" t="s">
-        <v>577</v>
+      <c r="M59" s="17" t="s">
+        <v>532</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>65</v>
@@ -5362,7 +5367,7 @@
         <v>53</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>65</v>
@@ -5398,58 +5403,57 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1"/>
-    <hyperlink ref="M11" r:id="rId2"/>
-    <hyperlink ref="M12" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="M15" r:id="rId6"/>
-    <hyperlink ref="M16" r:id="rId7"/>
-    <hyperlink ref="M17" r:id="rId8"/>
-    <hyperlink ref="M18" r:id="rId9"/>
-    <hyperlink ref="M19" r:id="rId10"/>
-    <hyperlink ref="M20" r:id="rId11"/>
-    <hyperlink ref="M21" r:id="rId12"/>
-    <hyperlink ref="M22" r:id="rId13"/>
-    <hyperlink ref="M23" r:id="rId14"/>
-    <hyperlink ref="M24" r:id="rId15"/>
-    <hyperlink ref="M25" r:id="rId16"/>
-    <hyperlink ref="M26" r:id="rId17"/>
-    <hyperlink ref="M27" r:id="rId18"/>
-    <hyperlink ref="M28" r:id="rId19"/>
-    <hyperlink ref="M29" r:id="rId20"/>
-    <hyperlink ref="M30" r:id="rId21"/>
-    <hyperlink ref="M31" r:id="rId22"/>
-    <hyperlink ref="M32" r:id="rId23"/>
-    <hyperlink ref="M35" r:id="rId24"/>
-    <hyperlink ref="M36" r:id="rId25"/>
-    <hyperlink ref="M42" r:id="rId26"/>
-    <hyperlink ref="M38" r:id="rId27"/>
-    <hyperlink ref="M39" r:id="rId28"/>
-    <hyperlink ref="M40" r:id="rId29"/>
-    <hyperlink ref="M41" r:id="rId30"/>
-    <hyperlink ref="M43" r:id="rId31"/>
-    <hyperlink ref="M44" r:id="rId32"/>
-    <hyperlink ref="M45" r:id="rId33"/>
-    <hyperlink ref="M46" r:id="rId34"/>
-    <hyperlink ref="M47" r:id="rId35"/>
-    <hyperlink ref="M48" r:id="rId36"/>
-    <hyperlink ref="M50" r:id="rId37"/>
-    <hyperlink ref="M52" r:id="rId38"/>
-    <hyperlink ref="M53" r:id="rId39"/>
-    <hyperlink ref="M55" r:id="rId40"/>
-    <hyperlink ref="M56" r:id="rId41"/>
-    <hyperlink ref="M57" r:id="rId42"/>
-    <hyperlink ref="M58" r:id="rId43"/>
-    <hyperlink ref="M60" r:id="rId44"/>
-    <hyperlink ref="M34" r:id="rId45"/>
-    <hyperlink ref="M8" r:id="rId46"/>
-    <hyperlink ref="M10" r:id="rId47"/>
-    <hyperlink ref="M33" r:id="rId48"/>
-    <hyperlink ref="M37" r:id="rId49"/>
-    <hyperlink ref="M49" r:id="rId50"/>
-    <hyperlink ref="M54" r:id="rId51"/>
-    <hyperlink ref="M59" r:id="rId52"/>
+    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="M10" r:id="rId2"/>
+    <hyperlink ref="M33" r:id="rId3"/>
+    <hyperlink ref="M54" r:id="rId4"/>
+    <hyperlink ref="M59" r:id="rId5"/>
+    <hyperlink ref="M37" r:id="rId6"/>
+    <hyperlink ref="M49" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M11" r:id="rId9"/>
+    <hyperlink ref="M12" r:id="rId10"/>
+    <hyperlink ref="M13" r:id="rId11"/>
+    <hyperlink ref="M14" r:id="rId12"/>
+    <hyperlink ref="M15" r:id="rId13"/>
+    <hyperlink ref="M16" r:id="rId14"/>
+    <hyperlink ref="M17" r:id="rId15"/>
+    <hyperlink ref="M18" r:id="rId16"/>
+    <hyperlink ref="M19" r:id="rId17"/>
+    <hyperlink ref="M20" r:id="rId18"/>
+    <hyperlink ref="M21" r:id="rId19"/>
+    <hyperlink ref="M22" r:id="rId20"/>
+    <hyperlink ref="M23" r:id="rId21"/>
+    <hyperlink ref="M24" r:id="rId22"/>
+    <hyperlink ref="M25" r:id="rId23"/>
+    <hyperlink ref="M26" r:id="rId24"/>
+    <hyperlink ref="M27" r:id="rId25"/>
+    <hyperlink ref="M28" r:id="rId26"/>
+    <hyperlink ref="M29" r:id="rId27"/>
+    <hyperlink ref="M30" r:id="rId28"/>
+    <hyperlink ref="M31" r:id="rId29"/>
+    <hyperlink ref="M32" r:id="rId30"/>
+    <hyperlink ref="M34" r:id="rId31"/>
+    <hyperlink ref="M35" r:id="rId32"/>
+    <hyperlink ref="M36" r:id="rId33"/>
+    <hyperlink ref="M38" r:id="rId34"/>
+    <hyperlink ref="M39" r:id="rId35"/>
+    <hyperlink ref="M41" r:id="rId36"/>
+    <hyperlink ref="M42" r:id="rId37"/>
+    <hyperlink ref="M43" r:id="rId38"/>
+    <hyperlink ref="M44" r:id="rId39"/>
+    <hyperlink ref="M45" r:id="rId40"/>
+    <hyperlink ref="M46" r:id="rId41"/>
+    <hyperlink ref="M47" r:id="rId42"/>
+    <hyperlink ref="M48" r:id="rId43"/>
+    <hyperlink ref="M50" r:id="rId44"/>
+    <hyperlink ref="M52" r:id="rId45"/>
+    <hyperlink ref="M53" r:id="rId46"/>
+    <hyperlink ref="M55" r:id="rId47"/>
+    <hyperlink ref="M56" r:id="rId48"/>
+    <hyperlink ref="M57" r:id="rId49"/>
+    <hyperlink ref="M58" r:id="rId50"/>
+    <hyperlink ref="M60" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5548,7 +5552,7 @@
     <sheetView topLeftCell="A3" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5626,10 +5630,10 @@
         <v>44973</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>283</v>
@@ -5646,10 +5650,10 @@
         <v>44530</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>283</v>
@@ -5660,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="C6" s="11">
         <v>43829</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>78</v>
@@ -5746,10 +5750,10 @@
         <v>43800</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>93</v>
@@ -5766,10 +5770,10 @@
         <v>44166</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>93</v>
@@ -5789,7 +5793,7 @@
         <v>299</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>93</v>
@@ -7006,10 +7010,10 @@
         <v>43811</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>93</v>
@@ -7026,10 +7030,10 @@
         <v>44380</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>283</v>
@@ -7046,10 +7050,10 @@
         <v>44899</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>93</v>
@@ -7206,10 +7210,10 @@
         <v>38403</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>283</v>
@@ -7226,10 +7230,10 @@
         <v>38403</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>283</v>
@@ -7246,10 +7250,10 @@
         <v>44984</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>283</v>
@@ -7866,10 +7870,10 @@
         <v>44542</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>359</v>
@@ -7886,10 +7890,10 @@
         <v>44900</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>359</v>
@@ -8146,10 +8150,10 @@
         <v>41734</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>93</v>
@@ -8166,10 +8170,10 @@
         <v>42310</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>93</v>
@@ -8186,10 +8190,10 @@
         <v>44960</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>93</v>
@@ -8426,10 +8430,10 @@
         <v>41154</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>93</v>
@@ -8446,10 +8450,10 @@
         <v>41397</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>93</v>
@@ -8466,10 +8470,10 @@
         <v>44900</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>93</v>

--- a/xlsx/a69_f17UPPachuca.xlsx
+++ b/xlsx/a69_f17UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sipot 1er tri 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="578">
   <si>
     <t>44247</t>
   </si>
@@ -1714,9 +1709,6 @@
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/17338%20BAENA%20SANCHEZ%20MARY%20CARMEN.pdf</t>
   </si>
   <si>
-    <t>sftp://UPPachuca@transparenciadocs.hidalgo.gob.mx/dir1/2023/SIPOT/1er%20Trimestre/F17/2299%20VALDIVIESO%20RODRIGUEZ%20MIGUEL%20ANGEL.pdf</t>
-  </si>
-  <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/10991%20ESQUIVEL%20MARTINEZ%20GERARDO.pdf</t>
   </si>
   <si>
@@ -1763,6 +1755,9 @@
   </si>
   <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/3238%20%20JUARICO%20GUASO%20JESUS%20EDUARDO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/F17/2299%20VALDIVIESO%20RODRIGUEZ%20MIGUEL%20ANGEL.pdf</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2204,7 +2199,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4262,7 @@
         <v>33</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>65</v>
@@ -4322,7 +4317,7 @@
         <v>34</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>65</v>
@@ -4377,7 +4372,7 @@
         <v>35</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>65</v>
@@ -4432,7 +4427,7 @@
         <v>36</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>65</v>
@@ -4487,7 +4482,7 @@
         <v>37</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>65</v>
@@ -4542,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>65</v>
@@ -4597,7 +4592,7 @@
         <v>39</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>65</v>
@@ -4652,7 +4647,7 @@
         <v>40</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>65</v>
@@ -4707,7 +4702,7 @@
         <v>41</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>65</v>
@@ -4817,7 +4812,7 @@
         <v>43</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>65</v>
@@ -4862,12 +4857,8 @@
       <c r="I51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="3">
         <v>44</v>
       </c>
@@ -4927,7 +4918,7 @@
         <v>45</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>65</v>
@@ -4982,7 +4973,7 @@
         <v>46</v>
       </c>
       <c r="M53" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>65</v>
@@ -5092,7 +5083,7 @@
         <v>48</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>65</v>
@@ -5147,7 +5138,7 @@
         <v>49</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>65</v>
@@ -5202,7 +5193,7 @@
         <v>50</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>65</v>
@@ -5257,7 +5248,7 @@
         <v>51</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>65</v>
@@ -5367,7 +5358,7 @@
         <v>53</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>65</v>
@@ -5454,6 +5445,7 @@
     <hyperlink ref="M57" r:id="rId49"/>
     <hyperlink ref="M58" r:id="rId50"/>
     <hyperlink ref="M60" r:id="rId51"/>
+    <hyperlink ref="M40" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
